--- a/usefulTools/TestFilesAndDocuments/UAT Current Requirements_Lisa2013_03_27_final_formatted_xml.xlsx
+++ b/usefulTools/TestFilesAndDocuments/UAT Current Requirements_Lisa2013_03_27_final_formatted_xml.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="130" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="146" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="UAT Items List" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,11 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="600">
   <si>
     <t>Result coding: 1 = Pass (full functionality with no unexpected errors), 0 = Fail (lack of required functionality or reproducible error during testing), 9 = Conditional (partial functionality, error during testing which cannot be reproduced, poor user experience or other constraints) X = Functionality which is desirable for future iterations of the system. these items are not necessary for user acceptance of this version of the system</t>
   </si>
   <si>
+    <t>All tests by Lisa 26/3/13</t>
+  </si>
+  <si>
     <t>#</t>
   </si>
   <si>
@@ -171,7 +174,7 @@
     <t>If all you want is a “P” then number – we can do that.  If you want to include other numbers, then we need to code for that.  That almost seems like its an issue of how you format the number/stickers/labels.  Otherwise you are replicating data.  We can look into this for future releases.</t>
   </si>
   <si>
-    <t>again, as above, may not be appropriate for wartn</t>
+    <t>may not be appropriate for wartn</t>
   </si>
   <si>
     <t>2.2.4</t>
@@ -2459,28 +2462,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+    <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="1:286"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A37" view="normal" windowProtection="false" workbookViewId="0" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100">
-      <selection activeCell="D43" activeCellId="0" pane="topLeft" sqref="D43"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.59607843137255"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="30.3960784313725"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="3" width="38.4078431372549"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="40.4509803921569"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="37.5843137254902"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="3" width="33.9960784313725"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="4" width="1.37647058823529"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="1.37647058823529"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="6" width="1.37647058823529"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="4" width="1.37647058823529"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="1.37647058823529"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="1.37647058823529"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="4" width="9.18039215686274"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="10.7725490196078"/>
+    <col collapsed="false" hidden="true" max="7" min="6" style="4" width="0"/>
+    <col collapsed="false" hidden="true" max="8" min="8" style="5" width="0"/>
+    <col collapsed="false" hidden="true" max="9" min="9" style="6" width="0"/>
+    <col collapsed="false" hidden="true" max="11" min="10" style="4" width="0"/>
+    <col collapsed="false" hidden="true" max="12" min="12" style="5" width="0"/>
+    <col collapsed="false" hidden="true" max="13" min="13" style="6" width="0"/>
+    <col collapsed="false" hidden="true" max="14" min="14" style="4" width="0"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="7.04313725490196"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="7" width="22.5176470588235"/>
     <col collapsed="false" hidden="false" max="1023" min="17" style="8" width="9.6078431372549"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.6078431372549"/>
@@ -2493,64 +2496,65 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
+      <c r="O1" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="2">
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
-      <c r="O2" s="11" t="n">
-        <v>41359</v>
-      </c>
+      <c r="O2" s="11"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="3">
       <c r="A3" s="12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="K3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="L3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="15" t="s">
+      <c r="M3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="16" t="s">
+      <c r="O3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>8</v>
-      </c>
       <c r="P3" s="16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="4">
@@ -2576,7 +2580,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
@@ -2591,10 +2595,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -2609,22 +2613,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="95.5" outlineLevel="0" r="7">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G7" s="30" t="n">
         <v>41262.5416666667</v>
@@ -2640,7 +2644,7 @@
       </c>
       <c r="M7" s="32"/>
       <c r="N7" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O7" s="23" t="n">
         <v>1</v>
@@ -2649,22 +2653,22 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="88.55" outlineLevel="0" r="8" s="43">
       <c r="A8" s="34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G8" s="38" t="n">
         <v>41262.5486111111</v>
@@ -2680,7 +2684,7 @@
       </c>
       <c r="M8" s="40"/>
       <c r="N8" s="37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="41" t="n">
         <v>1</v>
@@ -2690,22 +2694,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="138.3" outlineLevel="0" r="9">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" s="30" t="n">
         <v>41262.5520833333</v>
@@ -2714,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J9" s="45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K9" s="30" t="n">
         <v>41337.6354166667</v>
@@ -2726,10 +2730,10 @@
         <v>1</v>
       </c>
       <c r="M9" s="32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N9" s="45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O9" s="31" t="n">
         <v>1</v>
@@ -2738,10 +2742,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="10">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
@@ -2754,22 +2758,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="76.5" outlineLevel="0" r="11">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G11" s="30" t="n">
         <v>41262.5555555556</v>
@@ -2779,7 +2783,7 @@
       </c>
       <c r="I11" s="32"/>
       <c r="J11" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K11" s="30" t="n">
         <v>41262.5555555556</v>
@@ -2789,7 +2793,7 @@
       </c>
       <c r="M11" s="32"/>
       <c r="N11" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O11" s="31" t="n">
         <v>1</v>
@@ -2798,22 +2802,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="69" outlineLevel="0" r="12">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" s="30" t="n">
         <v>41262.5555555556</v>
@@ -2823,7 +2827,7 @@
       </c>
       <c r="I12" s="32"/>
       <c r="J12" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K12" s="30" t="n">
         <v>41262.5555555556</v>
@@ -2833,7 +2837,7 @@
       </c>
       <c r="M12" s="32"/>
       <c r="N12" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O12" s="31" t="n">
         <v>1</v>
@@ -2842,22 +2846,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="127.15" outlineLevel="0" r="13">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G13" s="30" t="n">
         <v>41262.5541666667</v>
@@ -2866,48 +2870,48 @@
         <v>9</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J13" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K13" s="30" t="n">
         <v>41262.5541666667</v>
       </c>
       <c r="L13" s="47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="N13" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="O13" s="47" t="s">
-        <v>49</v>
-      </c>
       <c r="P13" s="33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="83.25" outlineLevel="0" r="14">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G14" s="30" t="n">
         <v>41262.5555555556</v>
@@ -2917,7 +2921,7 @@
       </c>
       <c r="I14" s="32"/>
       <c r="J14" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K14" s="30" t="n">
         <v>41262.5555555556</v>
@@ -2927,33 +2931,33 @@
       </c>
       <c r="M14" s="32"/>
       <c r="N14" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O14" s="31" t="n">
         <v>9</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="83.25" outlineLevel="0" r="15">
       <c r="A15" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G15" s="30" t="n">
         <v>41262.5555555556</v>
@@ -2963,7 +2967,7 @@
       </c>
       <c r="I15" s="32"/>
       <c r="J15" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K15" s="30" t="n">
         <v>41262.5555555556</v>
@@ -2973,33 +2977,33 @@
       </c>
       <c r="M15" s="32"/>
       <c r="N15" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O15" s="31" t="n">
         <v>9</v>
       </c>
       <c r="P15" s="33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="83.25" outlineLevel="0" r="16">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G16" s="30" t="n">
         <v>41262.5541666667</v>
@@ -3009,7 +3013,7 @@
       </c>
       <c r="I16" s="32"/>
       <c r="J16" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K16" s="30" t="n">
         <v>41262.5541666667</v>
@@ -3019,133 +3023,133 @@
       </c>
       <c r="M16" s="32"/>
       <c r="N16" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O16" s="31" t="n">
         <v>9</v>
       </c>
       <c r="P16" s="33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="65.25" outlineLevel="0" r="17">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G17" s="30" t="n">
         <v>41262.5555555556</v>
       </c>
       <c r="H17" s="48" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I17" s="49" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J17" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K17" s="30" t="n">
         <v>41262.5555555556</v>
       </c>
       <c r="L17" s="48" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M17" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="N17" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="N17" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="O17" s="48" t="s">
-        <v>70</v>
-      </c>
       <c r="P17" s="50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="65.25" outlineLevel="0" r="18">
       <c r="A18" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G18" s="30" t="n">
         <v>41262.5555555556</v>
       </c>
       <c r="H18" s="48" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I18" s="49" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J18" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K18" s="30" t="n">
         <v>41262.5555555556</v>
       </c>
       <c r="L18" s="48" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M18" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="N18" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="N18" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="O18" s="48" t="s">
-        <v>70</v>
-      </c>
       <c r="P18" s="50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="75" outlineLevel="0" r="19">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G19" s="30" t="n">
         <v>41262.5541666667</v>
@@ -3154,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="I19" s="32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J19" s="29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K19" s="30" t="n">
         <v>41262.5541666667</v>
@@ -3166,24 +3170,24 @@
         <v>1</v>
       </c>
       <c r="M19" s="32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N19" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O19" s="44" t="n">
         <v>1</v>
       </c>
       <c r="P19" s="33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="20">
       <c r="A20" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -3196,22 +3200,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="150.75" outlineLevel="0" r="21">
       <c r="A21" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G21" s="30" t="n">
         <v>41262.5590277778</v>
@@ -3220,10 +3224,10 @@
         <v>0</v>
       </c>
       <c r="I21" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J21" s="29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K21" s="30" t="n">
         <v>41337.6381944445</v>
@@ -3232,10 +3236,10 @@
         <v>1</v>
       </c>
       <c r="M21" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N21" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O21" s="31" t="n">
         <v>1</v>
@@ -3244,22 +3248,22 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="150.75" outlineLevel="0" r="22" s="43">
       <c r="A22" s="34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G22" s="38" t="n">
         <v>41262.5590277778</v>
@@ -3275,7 +3279,7 @@
       </c>
       <c r="M22" s="40"/>
       <c r="N22" s="37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O22" s="39" t="n">
         <v>1</v>
@@ -3285,22 +3289,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="206.25" outlineLevel="0" r="23">
       <c r="A23" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G23" s="30" t="n">
         <v>41262.5729166667</v>
@@ -3309,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="I23" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J23" s="29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K23" s="30" t="n">
         <v>41337.6381944445</v>
@@ -3321,10 +3325,10 @@
         <v>1</v>
       </c>
       <c r="M23" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N23" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O23" s="31" t="n">
         <v>1</v>
@@ -3333,10 +3337,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="24">
       <c r="A24" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -3349,22 +3353,22 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="90.75" outlineLevel="0" r="25" s="43">
       <c r="A25" s="34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G25" s="38" t="n">
         <v>41262.5791666667</v>
@@ -3374,7 +3378,7 @@
       </c>
       <c r="I25" s="40"/>
       <c r="J25" s="37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K25" s="38" t="n">
         <v>41262.5791666667</v>
@@ -3384,7 +3388,7 @@
       </c>
       <c r="M25" s="40"/>
       <c r="N25" s="37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O25" s="39" t="n">
         <v>1</v>
@@ -3394,22 +3398,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="83.25" outlineLevel="0" r="26">
       <c r="A26" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G26" s="30" t="n">
         <v>41262.5868055556</v>
@@ -3419,7 +3423,7 @@
       </c>
       <c r="I26" s="32"/>
       <c r="J26" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K26" s="30" t="n">
         <v>41262.5868055556</v>
@@ -3429,7 +3433,7 @@
       </c>
       <c r="M26" s="32"/>
       <c r="N26" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O26" s="31" t="n">
         <v>1</v>
@@ -3438,22 +3442,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="85.5" outlineLevel="0" r="27">
       <c r="A27" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G27" s="30" t="n">
         <v>41262.5923611111</v>
@@ -3462,10 +3466,10 @@
         <v>0</v>
       </c>
       <c r="I27" s="32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J27" s="29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K27" s="30" t="n">
         <v>41262.5645833333</v>
@@ -3474,36 +3478,36 @@
         <v>1</v>
       </c>
       <c r="M27" s="32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N27" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O27" s="44" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P27" s="33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="73.5" outlineLevel="0" r="28" s="43">
       <c r="A28" s="34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F28" s="37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G28" s="38" t="n">
         <v>41262.58125</v>
@@ -3513,7 +3517,7 @@
       </c>
       <c r="I28" s="40"/>
       <c r="J28" s="37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K28" s="38" t="n">
         <v>41262.58125</v>
@@ -3523,7 +3527,7 @@
       </c>
       <c r="M28" s="40"/>
       <c r="N28" s="37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O28" s="39" t="n">
         <v>1</v>
@@ -3533,22 +3537,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="98.25" outlineLevel="0" r="29">
       <c r="A29" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G29" s="30" t="n">
         <v>41262.5819444444</v>
@@ -3558,7 +3562,7 @@
       </c>
       <c r="I29" s="32"/>
       <c r="J29" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K29" s="30" t="n">
         <v>41262.5819444444</v>
@@ -3568,7 +3572,7 @@
       </c>
       <c r="M29" s="32"/>
       <c r="N29" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O29" s="31" t="n">
         <v>1</v>
@@ -3577,22 +3581,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="132.3" outlineLevel="0" r="30">
       <c r="A30" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F30" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G30" s="30" t="n">
         <v>41262.5826388889</v>
@@ -3601,10 +3605,10 @@
         <v>0</v>
       </c>
       <c r="I30" s="32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J30" s="29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K30" s="30" t="n">
         <v>41262.5645833333</v>
@@ -3613,36 +3617,36 @@
         <v>1</v>
       </c>
       <c r="M30" s="32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N30" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O30" s="31" t="n">
         <v>1</v>
       </c>
       <c r="P30" s="33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="188.05" outlineLevel="0" r="31">
       <c r="A31" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G31" s="30" t="n">
         <v>41262.5958333333</v>
@@ -3651,10 +3655,10 @@
         <v>0</v>
       </c>
       <c r="I31" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J31" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K31" s="30" t="n">
         <v>41262.5958333333</v>
@@ -3663,36 +3667,36 @@
         <v>1</v>
       </c>
       <c r="M31" s="32" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N31" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O31" s="44" t="n">
         <v>1</v>
       </c>
       <c r="P31" s="33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="223.85" outlineLevel="0" r="32">
       <c r="A32" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F32" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G32" s="30" t="n">
         <v>41262.6013888889</v>
@@ -3701,10 +3705,10 @@
         <v>0</v>
       </c>
       <c r="I32" s="32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J32" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K32" s="30" t="n">
         <v>41262.6013888889</v>
@@ -3713,36 +3717,36 @@
         <v>1</v>
       </c>
       <c r="M32" s="32" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N32" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O32" s="44" t="n">
         <v>1</v>
       </c>
       <c r="P32" s="33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="161.15" outlineLevel="0" r="33">
       <c r="A33" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F33" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G33" s="30" t="n">
         <v>41262.6041666667</v>
@@ -3751,10 +3755,10 @@
         <v>0</v>
       </c>
       <c r="I33" s="32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K33" s="30" t="n">
         <v>41337.6576388889</v>
@@ -3763,36 +3767,36 @@
         <v>1</v>
       </c>
       <c r="M33" s="32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N33" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O33" s="31" t="n">
         <v>1</v>
       </c>
       <c r="P33" s="33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="122.35" outlineLevel="0" r="34">
       <c r="A34" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G34" s="30" t="n">
         <v>41262.6020833333</v>
@@ -3802,7 +3806,7 @@
       </c>
       <c r="I34" s="32"/>
       <c r="J34" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K34" s="30" t="n">
         <v>41337.6020833333</v>
@@ -3812,7 +3816,7 @@
       </c>
       <c r="M34" s="32"/>
       <c r="N34" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O34" s="31" t="n">
         <v>1</v>
@@ -3821,22 +3825,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="124.5" outlineLevel="0" r="35">
       <c r="A35" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G35" s="30" t="n">
         <v>41262.6027777778</v>
@@ -3845,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J35" s="29"/>
       <c r="K35" s="30"/>
@@ -3853,34 +3857,34 @@
         <v>1</v>
       </c>
       <c r="M35" s="32" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N35" s="29"/>
       <c r="O35" s="31" t="n">
         <v>1</v>
       </c>
       <c r="P35" s="33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="109.5" outlineLevel="0" r="36">
       <c r="A36" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G36" s="30" t="n">
         <v>41262.6034722222</v>
@@ -3896,7 +3900,7 @@
       </c>
       <c r="M36" s="32"/>
       <c r="N36" s="29" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O36" s="44" t="n">
         <v>1</v>
@@ -3905,22 +3909,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="93.75" outlineLevel="0" r="37">
       <c r="A37" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F37" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G37" s="30" t="n">
         <v>41262.6041666667</v>
@@ -3929,10 +3933,10 @@
         <v>0</v>
       </c>
       <c r="I37" s="32" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J37" s="29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K37" s="30" t="n">
         <v>40973.6645833333</v>
@@ -3941,10 +3945,10 @@
         <v>1</v>
       </c>
       <c r="M37" s="32" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N37" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O37" s="44" t="n">
         <v>1</v>
@@ -3953,22 +3957,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="109.5" outlineLevel="0" r="38">
       <c r="A38" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F38" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G38" s="30" t="n">
         <v>41262.6048611111</v>
@@ -3978,7 +3982,7 @@
       </c>
       <c r="I38" s="32"/>
       <c r="J38" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K38" s="30" t="n">
         <v>41262.6048611111</v>
@@ -3988,7 +3992,7 @@
       </c>
       <c r="M38" s="32"/>
       <c r="N38" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O38" s="31" t="n">
         <v>1</v>
@@ -3997,22 +4001,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="124.5" outlineLevel="0" r="39">
       <c r="A39" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G39" s="30" t="n">
         <v>41262.6055555556</v>
@@ -4021,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="I39" s="32" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J39" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K39" s="30" t="n">
         <v>41262.6055555556</v>
@@ -4033,36 +4037,36 @@
         <v>1</v>
       </c>
       <c r="M39" s="32" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N39" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O39" s="31" t="n">
         <v>1</v>
       </c>
       <c r="P39" s="33" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="124.5" outlineLevel="0" r="40">
       <c r="A40" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F40" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G40" s="30" t="n">
         <v>41262.6138888889</v>
@@ -4072,7 +4076,7 @@
       </c>
       <c r="I40" s="32"/>
       <c r="J40" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K40" s="30" t="n">
         <v>41262.6138888889</v>
@@ -4082,7 +4086,7 @@
       </c>
       <c r="M40" s="32"/>
       <c r="N40" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O40" s="31" t="n">
         <v>1</v>
@@ -4091,10 +4095,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="41">
       <c r="A41" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D41" s="51"/>
       <c r="E41" s="51"/>
@@ -4106,22 +4110,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="99.95" outlineLevel="0" r="42">
       <c r="A42" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F42" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G42" s="30" t="n">
         <v>41262.6159722222</v>
@@ -4131,7 +4135,7 @@
       </c>
       <c r="I42" s="32"/>
       <c r="J42" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K42" s="30" t="n">
         <v>41262.6159722222</v>
@@ -4141,7 +4145,7 @@
       </c>
       <c r="M42" s="32"/>
       <c r="N42" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O42" s="31" t="n">
         <v>1</v>
@@ -4150,22 +4154,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="99.95" outlineLevel="0" r="43">
       <c r="A43" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="E43" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="B43" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="C43" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="D43" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="E43" s="28" t="s">
-        <v>205</v>
-      </c>
       <c r="F43" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G43" s="30" t="n">
         <v>41262.6159722222</v>
@@ -4175,7 +4179,7 @@
       </c>
       <c r="I43" s="32"/>
       <c r="J43" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K43" s="30" t="n">
         <v>41262.6159722222</v>
@@ -4185,7 +4189,7 @@
       </c>
       <c r="M43" s="32"/>
       <c r="N43" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O43" s="31" t="n">
         <v>1</v>
@@ -4194,22 +4198,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="99.95" outlineLevel="0" r="44">
       <c r="A44" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E44" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F44" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G44" s="30" t="n">
         <v>41262.6159722222</v>
@@ -4218,42 +4222,42 @@
         <v>9</v>
       </c>
       <c r="I44" s="32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J44" s="29"/>
       <c r="K44" s="30"/>
       <c r="L44" s="44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M44" s="32" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N44" s="29"/>
       <c r="O44" s="44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P44" s="33" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="99.95" outlineLevel="0" r="45">
       <c r="A45" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F45" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G45" s="30" t="n">
         <v>41262.6166666667</v>
@@ -4263,7 +4267,7 @@
       </c>
       <c r="I45" s="32"/>
       <c r="J45" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K45" s="30" t="n">
         <v>41262.6166666667</v>
@@ -4273,7 +4277,7 @@
       </c>
       <c r="M45" s="32"/>
       <c r="N45" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O45" s="31" t="n">
         <v>1</v>
@@ -4282,22 +4286,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="99.95" outlineLevel="0" r="46">
       <c r="A46" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F46" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G46" s="30" t="n">
         <v>41262.6166666667</v>
@@ -4307,7 +4311,7 @@
       </c>
       <c r="I46" s="32"/>
       <c r="J46" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K46" s="30" t="n">
         <v>41262.6166666667</v>
@@ -4317,7 +4321,7 @@
       </c>
       <c r="M46" s="32"/>
       <c r="N46" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O46" s="31" t="n">
         <v>1</v>
@@ -4326,22 +4330,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="99.95" outlineLevel="0" r="47">
       <c r="A47" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F47" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G47" s="30" t="n">
         <v>41262.6180555556</v>
@@ -4351,7 +4355,7 @@
       </c>
       <c r="I47" s="32"/>
       <c r="J47" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K47" s="30" t="n">
         <v>41262.6180555556</v>
@@ -4361,7 +4365,7 @@
       </c>
       <c r="M47" s="32"/>
       <c r="N47" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O47" s="31" t="n">
         <v>1</v>
@@ -4370,22 +4374,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="102.45" outlineLevel="0" r="48">
       <c r="A48" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F48" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G48" s="30" t="n">
         <v>41262.61875</v>
@@ -4395,7 +4399,7 @@
       </c>
       <c r="I48" s="32"/>
       <c r="J48" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K48" s="30" t="n">
         <v>41337.6770833333</v>
@@ -4404,36 +4408,36 @@
         <v>1</v>
       </c>
       <c r="M48" s="32" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N48" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O48" s="31" t="n">
         <v>1</v>
       </c>
       <c r="P48" s="33" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="99.95" outlineLevel="0" r="49">
       <c r="A49" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F49" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G49" s="30" t="n">
         <v>41262.6194444444</v>
@@ -4443,7 +4447,7 @@
       </c>
       <c r="I49" s="32"/>
       <c r="J49" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K49" s="30" t="n">
         <v>41262.6194444444</v>
@@ -4453,7 +4457,7 @@
       </c>
       <c r="M49" s="32"/>
       <c r="N49" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O49" s="31" t="n">
         <v>1</v>
@@ -4462,22 +4466,22 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="50" s="59">
       <c r="A50" s="53" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E50" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F50" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G50" s="55" t="n">
         <v>41262.6194444444</v>
@@ -4486,24 +4490,24 @@
         <v>9</v>
       </c>
       <c r="I50" s="56" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J50" s="54"/>
       <c r="K50" s="55"/>
       <c r="L50" s="57" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M50" s="56" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N50" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O50" s="57" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P50" s="58" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AMJ50" s="0"/>
     </row>
@@ -4527,7 +4531,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="52">
       <c r="B52" s="25" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -4551,19 +4555,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="85.55" outlineLevel="0" r="54">
       <c r="B54" s="28" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F54" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G54" s="62" t="inlineStr">
         <f aca="true">NOW()</f>
@@ -4575,7 +4579,7 @@
         <v>1</v>
       </c>
       <c r="I54" s="32" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J54" s="29"/>
       <c r="K54" s="29"/>
@@ -4583,29 +4587,29 @@
         <v>1</v>
       </c>
       <c r="M54" s="32" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N54" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O54" s="23" t="n">
         <v>1</v>
       </c>
       <c r="P54" s="33" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="79.5" outlineLevel="0" r="55">
       <c r="B55" s="27" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C55" s="46" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D55" s="46"/>
       <c r="E55" s="46"/>
       <c r="F55" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G55" s="62" t="inlineStr">
         <f aca="true">NOW()</f>
@@ -4617,7 +4621,7 @@
         <v>9</v>
       </c>
       <c r="I55" s="32" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J55" s="29"/>
       <c r="K55" s="29"/>
@@ -4626,7 +4630,7 @@
       </c>
       <c r="M55" s="32"/>
       <c r="N55" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O55" s="23" t="n">
         <v>1</v>
@@ -4635,15 +4639,15 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="75.75" outlineLevel="0" r="56">
       <c r="B56" s="27" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D56" s="46"/>
       <c r="E56" s="46"/>
       <c r="F56" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G56" s="62" t="inlineStr">
         <f aca="true">NOW()</f>
@@ -4655,7 +4659,7 @@
         <v>1</v>
       </c>
       <c r="I56" s="32" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J56" s="29"/>
       <c r="K56" s="29"/>
@@ -4664,7 +4668,7 @@
       </c>
       <c r="M56" s="32"/>
       <c r="N56" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O56" s="23" t="n">
         <v>1</v>
@@ -4673,19 +4677,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="70.5" outlineLevel="0" r="57">
       <c r="B57" s="27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E57" s="28" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F57" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G57" s="62" t="inlineStr">
         <f aca="true">NOW()</f>
@@ -4704,7 +4708,7 @@
       </c>
       <c r="M57" s="32"/>
       <c r="N57" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O57" s="23" t="n">
         <v>1</v>
@@ -4714,19 +4718,19 @@
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="41.25" outlineLevel="0" r="58" s="59">
       <c r="A58" s="63"/>
       <c r="B58" s="64" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C58" s="65" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D58" s="65" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E58" s="65" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F58" s="54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G58" s="66" t="inlineStr">
         <f aca="true">NOW()</f>
@@ -4745,7 +4749,7 @@
       </c>
       <c r="M58" s="56"/>
       <c r="N58" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O58" s="67" t="n">
         <v>1</v>
@@ -4756,19 +4760,19 @@
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="41.25" outlineLevel="0" r="59" s="59">
       <c r="A59" s="63"/>
       <c r="B59" s="64" t="s">
+        <v>247</v>
+      </c>
+      <c r="C59" s="65" t="s">
+        <v>244</v>
+      </c>
+      <c r="D59" s="65" t="s">
+        <v>245</v>
+      </c>
+      <c r="E59" s="65" t="s">
         <v>246</v>
       </c>
-      <c r="C59" s="65" t="s">
-        <v>243</v>
-      </c>
-      <c r="D59" s="65" t="s">
-        <v>244</v>
-      </c>
-      <c r="E59" s="65" t="s">
-        <v>245</v>
-      </c>
       <c r="F59" s="54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G59" s="66" t="inlineStr">
         <f aca="true">NOW()</f>
@@ -4783,36 +4787,36 @@
       <c r="J59" s="67"/>
       <c r="K59" s="54"/>
       <c r="L59" s="67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M59" s="56" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N59" s="67" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O59" s="67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P59" s="58" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AMJ59" s="0"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="60" s="43">
       <c r="A60" s="34"/>
       <c r="B60" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C60" s="68" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D60" s="69" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E60" s="69"/>
       <c r="F60" s="37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G60" s="70" t="inlineStr">
         <f aca="true">NOW()</f>
@@ -4830,34 +4834,34 @@
         <v>1</v>
       </c>
       <c r="M60" s="40" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N60" s="37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O60" s="71" t="n">
         <v>1</v>
       </c>
       <c r="P60" s="42" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AMJ60" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="61">
       <c r="B61" s="28" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E61" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F61" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G61" s="62" t="inlineStr">
         <f aca="true">NOW()</f>
@@ -4870,7 +4874,7 @@
       </c>
       <c r="I61" s="32"/>
       <c r="J61" s="29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K61" s="62" t="inlineStr">
         <f aca="true">NOW()</f>
@@ -4882,33 +4886,33 @@
         <v>1</v>
       </c>
       <c r="M61" s="32" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N61" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O61" s="23" t="n">
         <v>1</v>
       </c>
       <c r="P61" s="33" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="62">
       <c r="B62" s="28" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E62" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F62" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G62" s="62" t="inlineStr">
         <f aca="true">NOW()</f>
@@ -4921,7 +4925,7 @@
       </c>
       <c r="I62" s="32"/>
       <c r="J62" s="29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K62" s="62" t="inlineStr">
         <f aca="true">NOW()</f>
@@ -4933,33 +4937,33 @@
         <v>1</v>
       </c>
       <c r="M62" s="32" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N62" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O62" s="23" t="n">
         <v>1</v>
       </c>
       <c r="P62" s="33" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="63">
       <c r="B63" s="28" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E63" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F63" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G63" s="62" t="inlineStr">
         <f aca="true">NOW()</f>
@@ -4971,10 +4975,10 @@
         <v>1</v>
       </c>
       <c r="I63" s="32" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J63" s="29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K63" s="62" t="inlineStr">
         <f aca="true">NOW()</f>
@@ -4986,34 +4990,34 @@
         <v>1</v>
       </c>
       <c r="M63" s="32" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N63" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O63" s="23" t="n">
         <v>1</v>
       </c>
       <c r="P63" s="33" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="45.75" outlineLevel="0" r="64" s="59">
       <c r="A64" s="63"/>
       <c r="B64" s="64" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C64" s="65" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D64" s="65" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E64" s="65" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F64" s="54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G64" s="66" t="inlineStr">
         <f aca="true">NOW()</f>
@@ -5025,7 +5029,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="56" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J64" s="54"/>
       <c r="K64" s="54"/>
@@ -5034,7 +5038,7 @@
       </c>
       <c r="M64" s="56"/>
       <c r="N64" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O64" s="67" t="n">
         <v>1</v>
@@ -5062,7 +5066,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="66">
       <c r="B66" s="25" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F66" s="61"/>
       <c r="G66" s="61"/>
@@ -5072,10 +5076,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="67">
       <c r="A67" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -5088,26 +5092,26 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="73.5" outlineLevel="0" r="68">
       <c r="A68" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E68" s="28" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F68" s="29"/>
       <c r="G68" s="29"/>
       <c r="H68" s="23"/>
       <c r="I68" s="32"/>
       <c r="J68" s="29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K68" s="62" t="n">
         <v>41338.5347222222</v>
@@ -5116,40 +5120,40 @@
         <v>1</v>
       </c>
       <c r="M68" s="32" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N68" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O68" s="23" t="n">
         <v>1</v>
       </c>
       <c r="P68" s="33" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="72" outlineLevel="0" r="69" s="43">
       <c r="A69" s="34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B69" s="35" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C69" s="36" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D69" s="36" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E69" s="36" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F69" s="37"/>
       <c r="G69" s="37"/>
       <c r="H69" s="41"/>
       <c r="I69" s="40"/>
       <c r="J69" s="37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K69" s="70" t="n">
         <v>41338.5347222222</v>
@@ -5158,22 +5162,22 @@
         <v>1</v>
       </c>
       <c r="M69" s="40" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N69" s="37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O69" s="41" t="n">
         <v>1</v>
       </c>
       <c r="P69" s="42" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AMJ69" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="70">
       <c r="B70" s="25" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F70" s="26"/>
       <c r="G70" s="26"/>
@@ -5183,13 +5187,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="61.5" outlineLevel="0" r="71">
       <c r="B71" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C71" s="28"/>
       <c r="D71" s="28"/>
       <c r="E71" s="28"/>
       <c r="F71" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G71" s="62" t="n">
         <v>41338.5347222222</v>
@@ -5198,10 +5202,10 @@
         <v>1</v>
       </c>
       <c r="I71" s="32" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J71" s="29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K71" s="62" t="n">
         <v>41338.5347222222</v>
@@ -5210,21 +5214,21 @@
         <v>1</v>
       </c>
       <c r="M71" s="32" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N71" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O71" s="23" t="n">
         <v>9</v>
       </c>
       <c r="P71" s="33" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="72">
       <c r="B72" s="25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F72" s="26"/>
       <c r="G72" s="26"/>
@@ -5234,19 +5238,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="73">
       <c r="B73" s="27" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E73" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F73" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G73" s="62" t="n">
         <v>41338.5347222222</v>
@@ -5262,7 +5266,7 @@
       </c>
       <c r="M73" s="32"/>
       <c r="N73" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O73" s="23" t="n">
         <v>1</v>
@@ -5271,19 +5275,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="74">
       <c r="B74" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="C74" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="C74" s="28" t="s">
-        <v>279</v>
-      </c>
       <c r="D74" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E74" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F74" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G74" s="62" t="n">
         <v>41338.5347222222</v>
@@ -5299,7 +5303,7 @@
       </c>
       <c r="M74" s="32"/>
       <c r="N74" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O74" s="23" t="n">
         <v>1</v>
@@ -5308,19 +5312,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="75">
       <c r="B75" s="27" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C75" s="28" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E75" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F75" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G75" s="62" t="n">
         <v>41338.5347222222</v>
@@ -5336,7 +5340,7 @@
       </c>
       <c r="M75" s="32"/>
       <c r="N75" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O75" s="23" t="n">
         <v>1</v>
@@ -5345,19 +5349,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="76">
       <c r="B76" s="27" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C76" s="28" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E76" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F76" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G76" s="62" t="n">
         <v>41338.5347222222</v>
@@ -5373,7 +5377,7 @@
       </c>
       <c r="M76" s="32"/>
       <c r="N76" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O76" s="23" t="n">
         <v>1</v>
@@ -5382,19 +5386,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="77">
       <c r="B77" s="27" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C77" s="28" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E77" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F77" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G77" s="62" t="n">
         <v>41338.5347222222</v>
@@ -5410,7 +5414,7 @@
       </c>
       <c r="M77" s="32"/>
       <c r="N77" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O77" s="23" t="n">
         <v>1</v>
@@ -5419,19 +5423,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="78">
       <c r="B78" s="27" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C78" s="28" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E78" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F78" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G78" s="62" t="n">
         <v>41338.5347222222</v>
@@ -5447,7 +5451,7 @@
       </c>
       <c r="M78" s="32"/>
       <c r="N78" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O78" s="23" t="n">
         <v>1</v>
@@ -5456,19 +5460,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="79">
       <c r="B79" s="27" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C79" s="28" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D79" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E79" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F79" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G79" s="62" t="n">
         <v>41338.5347222222</v>
@@ -5484,7 +5488,7 @@
       </c>
       <c r="M79" s="32"/>
       <c r="N79" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O79" s="23" t="n">
         <v>1</v>
@@ -5493,19 +5497,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="80">
       <c r="B80" s="27" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C80" s="28" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E80" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F80" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G80" s="62" t="n">
         <v>41338.5347222222</v>
@@ -5521,7 +5525,7 @@
       </c>
       <c r="M80" s="32"/>
       <c r="N80" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O80" s="23" t="n">
         <v>1</v>
@@ -5530,19 +5534,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="81">
       <c r="B81" s="27" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C81" s="28" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E81" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F81" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G81" s="62" t="n">
         <v>41338.5347222222</v>
@@ -5558,7 +5562,7 @@
       </c>
       <c r="M81" s="32"/>
       <c r="N81" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O81" s="23" t="n">
         <v>1</v>
@@ -5567,19 +5571,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="82">
       <c r="B82" s="27" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C82" s="28" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E82" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F82" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G82" s="62" t="n">
         <v>41338.5347222222</v>
@@ -5594,33 +5598,33 @@
         <v>1</v>
       </c>
       <c r="M82" s="32" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N82" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O82" s="23" t="n">
         <v>1</v>
       </c>
       <c r="P82" s="33" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="83">
       <c r="B83" s="27" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C83" s="28" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E83" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F83" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G83" s="62" t="n">
         <v>41338.5347222222</v>
@@ -5636,7 +5640,7 @@
       </c>
       <c r="M83" s="32"/>
       <c r="N83" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O83" s="23" t="n">
         <v>1</v>
@@ -5645,19 +5649,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="84">
       <c r="B84" s="27" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C84" s="28" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D84" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E84" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F84" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G84" s="62" t="n">
         <v>41338.5347222222</v>
@@ -5673,7 +5677,7 @@
       </c>
       <c r="M84" s="32"/>
       <c r="N84" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O84" s="23" t="n">
         <v>1</v>
@@ -5682,19 +5686,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="85">
       <c r="B85" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="C85" s="28" t="s">
         <v>293</v>
       </c>
-      <c r="C85" s="28" t="s">
-        <v>292</v>
-      </c>
       <c r="D85" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E85" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F85" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G85" s="62" t="n">
         <v>41338.5395833333</v>
@@ -5710,7 +5714,7 @@
       </c>
       <c r="M85" s="32"/>
       <c r="N85" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O85" s="23" t="n">
         <v>1</v>
@@ -5719,19 +5723,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="86">
       <c r="B86" s="27" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C86" s="28" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E86" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F86" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G86" s="62" t="n">
         <v>41338.5395833333</v>
@@ -5747,7 +5751,7 @@
       </c>
       <c r="M86" s="32"/>
       <c r="N86" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O86" s="23" t="n">
         <v>1</v>
@@ -5756,19 +5760,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="87">
       <c r="B87" s="27" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C87" s="28" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E87" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F87" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G87" s="62" t="n">
         <v>41338.5395833333</v>
@@ -5784,7 +5788,7 @@
       </c>
       <c r="M87" s="32"/>
       <c r="N87" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O87" s="23" t="n">
         <v>1</v>
@@ -5793,19 +5797,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="88">
       <c r="B88" s="27" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C88" s="28" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E88" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F88" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G88" s="62" t="n">
         <v>41338.5395833333</v>
@@ -5821,7 +5825,7 @@
       </c>
       <c r="M88" s="32"/>
       <c r="N88" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O88" s="23" t="n">
         <v>1</v>
@@ -5830,19 +5834,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="89">
       <c r="B89" s="27" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C89" s="28" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E89" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F89" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G89" s="62" t="n">
         <v>41338.5395833333</v>
@@ -5851,7 +5855,7 @@
         <v>1</v>
       </c>
       <c r="I89" s="32" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J89" s="29"/>
       <c r="K89" s="29"/>
@@ -5860,7 +5864,7 @@
       </c>
       <c r="M89" s="32"/>
       <c r="N89" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O89" s="23" t="n">
         <v>1</v>
@@ -5869,19 +5873,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="90">
       <c r="B90" s="27" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C90" s="28" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E90" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F90" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G90" s="62" t="n">
         <v>41338.5395833333</v>
@@ -5890,7 +5894,7 @@
         <v>9</v>
       </c>
       <c r="I90" s="32" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J90" s="29"/>
       <c r="K90" s="29"/>
@@ -5899,7 +5903,7 @@
       </c>
       <c r="M90" s="32"/>
       <c r="N90" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O90" s="23" t="n">
         <v>1</v>
@@ -5908,19 +5912,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="91">
       <c r="B91" s="27" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C91" s="28" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E91" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F91" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G91" s="62" t="n">
         <v>41338.5409722222</v>
@@ -5935,7 +5939,7 @@
       </c>
       <c r="M91" s="32"/>
       <c r="N91" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O91" s="23" t="n">
         <v>1</v>
@@ -5944,19 +5948,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="92">
       <c r="B92" s="27" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C92" s="28" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E92" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F92" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G92" s="62" t="n">
         <v>41338.5409722222</v>
@@ -5972,7 +5976,7 @@
       </c>
       <c r="M92" s="32"/>
       <c r="N92" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O92" s="23" t="n">
         <v>1</v>
@@ -5981,19 +5985,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="93">
       <c r="B93" s="27" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C93" s="28" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E93" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F93" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G93" s="62" t="n">
         <v>41338.5409722222</v>
@@ -6009,7 +6013,7 @@
       </c>
       <c r="M93" s="32"/>
       <c r="N93" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O93" s="23" t="n">
         <v>1</v>
@@ -6018,19 +6022,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="94">
       <c r="B94" s="27" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E94" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F94" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G94" s="62" t="n">
         <v>41338.5409722222</v>
@@ -6046,7 +6050,7 @@
       </c>
       <c r="M94" s="32"/>
       <c r="N94" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O94" s="23" t="n">
         <v>1</v>
@@ -6055,19 +6059,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="95">
       <c r="B95" s="27" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C95" s="28" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E95" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F95" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G95" s="62" t="n">
         <v>41338.5409722222</v>
@@ -6083,7 +6087,7 @@
       </c>
       <c r="M95" s="32"/>
       <c r="N95" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O95" s="23" t="n">
         <v>1</v>
@@ -6092,19 +6096,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="96">
       <c r="B96" s="27" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C96" s="28" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D96" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E96" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F96" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G96" s="62" t="n">
         <v>41338.5409722222</v>
@@ -6120,7 +6124,7 @@
       </c>
       <c r="M96" s="32"/>
       <c r="N96" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O96" s="23" t="n">
         <v>1</v>
@@ -6129,19 +6133,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="97">
       <c r="B97" s="27" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C97" s="28" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D97" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E97" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F97" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G97" s="62" t="n">
         <v>41338.5409722222</v>
@@ -6157,7 +6161,7 @@
       </c>
       <c r="M97" s="32"/>
       <c r="N97" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O97" s="23" t="n">
         <v>1</v>
@@ -6166,19 +6170,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="98">
       <c r="B98" s="27" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E98" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F98" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G98" s="62" t="n">
         <v>41338.5409722222</v>
@@ -6194,7 +6198,7 @@
       </c>
       <c r="M98" s="32"/>
       <c r="N98" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O98" s="23" t="n">
         <v>1</v>
@@ -6203,19 +6207,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="99">
       <c r="B99" s="27" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C99" s="28" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D99" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E99" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F99" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G99" s="62" t="n">
         <v>41338.5409722222</v>
@@ -6224,7 +6228,7 @@
         <v>9</v>
       </c>
       <c r="I99" s="32" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J99" s="29"/>
       <c r="K99" s="29"/>
@@ -6233,7 +6237,7 @@
       </c>
       <c r="M99" s="32"/>
       <c r="N99" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O99" s="23" t="n">
         <v>1</v>
@@ -6242,7 +6246,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="100">
       <c r="B100" s="25" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F100" s="26"/>
       <c r="G100" s="26"/>
@@ -6252,59 +6256,59 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="102.75" outlineLevel="0" r="101">
       <c r="B101" s="27" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D101" s="28" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E101" s="28" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F101" s="29"/>
       <c r="G101" s="29"/>
       <c r="H101" s="23"/>
       <c r="I101" s="32" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J101" s="29"/>
       <c r="K101" s="29"/>
       <c r="L101" s="23" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M101" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="N101" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="O101" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="N101" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="O101" s="23" t="s">
-        <v>315</v>
-      </c>
       <c r="P101" s="33" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="137.25" outlineLevel="0" r="102">
       <c r="B102" s="27" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D102" s="28" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E102" s="28" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F102" s="29"/>
       <c r="G102" s="29"/>
       <c r="H102" s="23"/>
       <c r="I102" s="32" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J102" s="29"/>
       <c r="K102" s="29"/>
@@ -6312,21 +6316,21 @@
         <v>1</v>
       </c>
       <c r="M102" s="32" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N102" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O102" s="23" t="n">
         <v>1</v>
       </c>
       <c r="P102" s="33" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="103">
       <c r="B103" s="25" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F103" s="26"/>
       <c r="G103" s="26"/>
@@ -6336,19 +6340,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="115.5" outlineLevel="0" r="104">
       <c r="B104" s="27" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C104" s="28" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D104" s="28" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E104" s="28" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F104" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G104" s="62" t="n">
         <v>41338.6583333333</v>
@@ -6364,7 +6368,7 @@
       </c>
       <c r="M104" s="32"/>
       <c r="N104" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O104" s="23" t="n">
         <v>1</v>
@@ -6373,19 +6377,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="99.75" outlineLevel="0" r="105">
       <c r="B105" s="27" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C105" s="28" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D105" s="28" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E105" s="28" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F105" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G105" s="62" t="n">
         <v>41338.6583333333</v>
@@ -6401,7 +6405,7 @@
       </c>
       <c r="M105" s="32"/>
       <c r="N105" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O105" s="23" t="n">
         <v>1</v>
@@ -6410,19 +6414,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="88.5" outlineLevel="0" r="106">
       <c r="B106" s="27" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C106" s="28" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D106" s="28" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E106" s="28" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F106" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G106" s="62" t="n">
         <v>41338.6583333333</v>
@@ -6438,7 +6442,7 @@
       </c>
       <c r="M106" s="32"/>
       <c r="N106" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O106" s="23" t="n">
         <v>1</v>
@@ -6448,19 +6452,19 @@
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="109.5" outlineLevel="0" r="107" s="43">
       <c r="A107" s="34"/>
       <c r="B107" s="35" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C107" s="36" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D107" s="36" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E107" s="36" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F107" s="37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G107" s="70" t="n">
         <v>41338.6583333333</v>
@@ -6476,7 +6480,7 @@
       </c>
       <c r="M107" s="40"/>
       <c r="N107" s="37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O107" s="41" t="n">
         <v>1</v>
@@ -6487,19 +6491,19 @@
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="99.75" outlineLevel="0" r="108" s="43">
       <c r="A108" s="34"/>
       <c r="B108" s="35" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C108" s="36" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D108" s="36" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E108" s="36" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F108" s="37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G108" s="70" t="n">
         <v>41338.6583333333</v>
@@ -6515,7 +6519,7 @@
       </c>
       <c r="M108" s="40"/>
       <c r="N108" s="37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O108" s="41" t="n">
         <v>1</v>
@@ -6525,7 +6529,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="109">
       <c r="B109" s="25" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F109" s="26"/>
       <c r="G109" s="26"/>
@@ -6536,19 +6540,19 @@
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="110" s="59">
       <c r="A110" s="63"/>
       <c r="B110" s="64" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C110" s="65" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D110" s="65" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E110" s="65" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F110" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G110" s="66" t="n">
         <v>41338.6194444444</v>
@@ -6564,7 +6568,7 @@
       </c>
       <c r="M110" s="56"/>
       <c r="N110" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O110" s="67" t="n">
         <v>1</v>
@@ -6575,19 +6579,19 @@
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="111" s="59">
       <c r="A111" s="63"/>
       <c r="B111" s="64" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C111" s="65" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D111" s="65" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E111" s="65" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F111" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G111" s="66" t="n">
         <v>41338.6194444444</v>
@@ -6603,7 +6607,7 @@
       </c>
       <c r="M111" s="56"/>
       <c r="N111" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O111" s="67" t="n">
         <v>1</v>
@@ -6614,19 +6618,19 @@
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="112" s="59">
       <c r="A112" s="63"/>
       <c r="B112" s="64" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C112" s="65" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D112" s="65" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E112" s="65" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F112" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G112" s="66" t="n">
         <v>41338.6194444444</v>
@@ -6642,7 +6646,7 @@
       </c>
       <c r="M112" s="56"/>
       <c r="N112" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O112" s="67" t="n">
         <v>1</v>
@@ -6653,19 +6657,19 @@
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="113" s="59">
       <c r="A113" s="63"/>
       <c r="B113" s="64" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C113" s="65" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D113" s="65" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E113" s="65" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F113" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G113" s="66" t="n">
         <v>41338.6194444444</v>
@@ -6681,7 +6685,7 @@
       </c>
       <c r="M113" s="56"/>
       <c r="N113" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O113" s="67" t="n">
         <v>1</v>
@@ -6692,16 +6696,16 @@
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="64.5" outlineLevel="0" r="114" s="59">
       <c r="A114" s="63"/>
       <c r="B114" s="64" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C114" s="65" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D114" s="65" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E114" s="65" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F114" s="54"/>
       <c r="G114" s="54"/>
@@ -6714,7 +6718,7 @@
       </c>
       <c r="M114" s="56"/>
       <c r="N114" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O114" s="67" t="n">
         <v>1</v>
@@ -6724,7 +6728,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="115">
       <c r="B115" s="25" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F115" s="26"/>
       <c r="G115" s="26"/>
@@ -6734,7 +6738,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="61.5" outlineLevel="0" r="116">
       <c r="B116" s="72" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C116" s="46"/>
       <c r="D116" s="46"/>
@@ -6749,30 +6753,30 @@
         <v>1</v>
       </c>
       <c r="M116" s="32" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N116" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O116" s="23" t="n">
         <v>1</v>
       </c>
       <c r="P116" s="33" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="104.1" outlineLevel="0" r="117" s="74">
       <c r="A117" s="53"/>
       <c r="B117" s="72" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C117" s="28" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D117" s="46"/>
       <c r="E117" s="46"/>
       <c r="F117" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G117" s="66" t="n">
         <v>41338.5868055556</v>
@@ -6781,7 +6785,7 @@
         <v>1</v>
       </c>
       <c r="I117" s="49" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J117" s="54"/>
       <c r="K117" s="54"/>
@@ -6789,31 +6793,31 @@
         <v>1</v>
       </c>
       <c r="M117" s="49" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N117" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O117" s="67" t="n">
         <v>1</v>
       </c>
       <c r="P117" s="73" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AMJ117" s="0"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="72" outlineLevel="0" r="118" s="59">
       <c r="A118" s="53"/>
       <c r="B118" s="72" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C118" s="28" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D118" s="46"/>
       <c r="E118" s="46"/>
       <c r="F118" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G118" s="66" t="n">
         <v>41338.6611111111</v>
@@ -6822,7 +6826,7 @@
         <v>1</v>
       </c>
       <c r="I118" s="49" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J118" s="54"/>
       <c r="K118" s="54"/>
@@ -6830,16 +6834,16 @@
         <v>1</v>
       </c>
       <c r="M118" s="49" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N118" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O118" s="67" t="n">
         <v>1</v>
       </c>
       <c r="P118" s="73" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AMJ118" s="0"/>
     </row>
@@ -6864,7 +6868,7 @@
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="120" s="82">
       <c r="A120" s="75"/>
       <c r="B120" s="76" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C120" s="77"/>
       <c r="D120" s="77"/>
@@ -6892,7 +6896,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="122">
       <c r="B122" s="25" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F122" s="61"/>
       <c r="G122" s="61"/>
@@ -6902,19 +6906,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="73.5" outlineLevel="0" r="123">
       <c r="B123" s="27" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C123" s="28" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D123" s="28" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E123" s="28" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F123" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G123" s="62" t="n">
         <v>41338.5916666667</v>
@@ -6924,7 +6928,7 @@
       </c>
       <c r="I123" s="32"/>
       <c r="J123" s="29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K123" s="62" t="n">
         <v>41338.5347222222</v>
@@ -6933,34 +6937,34 @@
         <v>1</v>
       </c>
       <c r="M123" s="32" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N123" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O123" s="23" t="n">
         <v>1</v>
       </c>
       <c r="P123" s="33" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="72" outlineLevel="0" r="124" s="43">
       <c r="A124" s="34"/>
       <c r="B124" s="35" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C124" s="36" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D124" s="36" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E124" s="36" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F124" s="37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G124" s="70" t="n">
         <v>41338.5916666667</v>
@@ -6970,7 +6974,7 @@
       </c>
       <c r="I124" s="40"/>
       <c r="J124" s="37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K124" s="70" t="n">
         <v>41338.5347222222</v>
@@ -6979,22 +6983,22 @@
         <v>1</v>
       </c>
       <c r="M124" s="40" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N124" s="37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O124" s="41" t="n">
         <v>1</v>
       </c>
       <c r="P124" s="42" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AMJ124" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="125">
       <c r="B125" s="25" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F125" s="61"/>
       <c r="G125" s="61"/>
@@ -7004,7 +7008,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="126">
       <c r="B126" s="25" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F126" s="61"/>
       <c r="G126" s="61"/>
@@ -7014,15 +7018,15 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="127">
       <c r="B127" s="27" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C127" s="28" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D127" s="28"/>
       <c r="E127" s="28"/>
       <c r="F127" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G127" s="62" t="n">
         <v>41338.5916666667</v>
@@ -7038,7 +7042,7 @@
       </c>
       <c r="M127" s="32"/>
       <c r="N127" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O127" s="23" t="n">
         <v>1</v>
@@ -7047,7 +7051,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="128">
       <c r="B128" s="25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F128" s="61"/>
       <c r="G128" s="61"/>
@@ -7057,7 +7061,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="129">
       <c r="B129" s="25" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F129" s="61"/>
       <c r="G129" s="61"/>
@@ -7067,7 +7071,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="130">
       <c r="B130" s="25" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F130" s="61"/>
       <c r="G130" s="61"/>
@@ -7077,7 +7081,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="131">
       <c r="B131" s="25" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F131" s="61"/>
       <c r="G131" s="61"/>
@@ -7087,7 +7091,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="132">
       <c r="B132" s="25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F132" s="61"/>
       <c r="G132" s="61"/>
@@ -7097,16 +7101,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="133">
       <c r="B133" s="27" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C133" s="28" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D133" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E133" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F133" s="29"/>
       <c r="G133" s="29"/>
@@ -7115,33 +7119,33 @@
       <c r="J133" s="29"/>
       <c r="K133" s="29"/>
       <c r="L133" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M133" s="32" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N133" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O133" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P133" s="33" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="134">
       <c r="B134" s="27" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C134" s="28" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D134" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E134" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F134" s="29"/>
       <c r="G134" s="29"/>
@@ -7150,36 +7154,36 @@
       <c r="J134" s="29"/>
       <c r="K134" s="29"/>
       <c r="L134" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M134" s="32" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N134" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O134" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P134" s="33" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="135">
       <c r="B135" s="27" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C135" s="28" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D135" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E135" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F135" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G135" s="62" t="n">
         <v>41338.5916666667</v>
@@ -7195,7 +7199,7 @@
       </c>
       <c r="M135" s="32"/>
       <c r="N135" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O135" s="23" t="n">
         <v>1</v>
@@ -7204,19 +7208,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="136">
       <c r="B136" s="27" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C136" s="28" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D136" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E136" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F136" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G136" s="62" t="n">
         <v>41338.5916666667</v>
@@ -7232,7 +7236,7 @@
       </c>
       <c r="M136" s="32"/>
       <c r="N136" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O136" s="23" t="n">
         <v>1</v>
@@ -7241,19 +7245,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="137">
       <c r="B137" s="27" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C137" s="28" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D137" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E137" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F137" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G137" s="62" t="n">
         <v>41338.5916666667</v>
@@ -7269,7 +7273,7 @@
       </c>
       <c r="M137" s="32"/>
       <c r="N137" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O137" s="23" t="n">
         <v>1</v>
@@ -7278,19 +7282,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="138">
       <c r="B138" s="27" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C138" s="28" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D138" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E138" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F138" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G138" s="62" t="n">
         <v>41338.5916666667</v>
@@ -7306,7 +7310,7 @@
       </c>
       <c r="M138" s="32"/>
       <c r="N138" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O138" s="23" t="n">
         <v>1</v>
@@ -7315,19 +7319,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="139">
       <c r="B139" s="27" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C139" s="28" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D139" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E139" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F139" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G139" s="62" t="n">
         <v>41338.5916666667</v>
@@ -7343,7 +7347,7 @@
       </c>
       <c r="M139" s="32"/>
       <c r="N139" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O139" s="23" t="n">
         <v>1</v>
@@ -7352,19 +7356,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="140">
       <c r="B140" s="27" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C140" s="28" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D140" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E140" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F140" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G140" s="62" t="n">
         <v>41338.5916666667</v>
@@ -7373,7 +7377,7 @@
         <v>1</v>
       </c>
       <c r="I140" s="32" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J140" s="29"/>
       <c r="K140" s="29"/>
@@ -7382,7 +7386,7 @@
       </c>
       <c r="M140" s="32"/>
       <c r="N140" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O140" s="23" t="n">
         <v>1</v>
@@ -7391,19 +7395,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="141">
       <c r="B141" s="27" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C141" s="28" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D141" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E141" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F141" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G141" s="62" t="n">
         <v>41338.6</v>
@@ -7419,7 +7423,7 @@
       </c>
       <c r="M141" s="32"/>
       <c r="N141" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O141" s="23" t="n">
         <v>1</v>
@@ -7428,19 +7432,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="142">
       <c r="B142" s="27" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C142" s="28" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D142" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E142" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F142" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G142" s="62" t="n">
         <v>41338.6</v>
@@ -7456,7 +7460,7 @@
       </c>
       <c r="M142" s="32"/>
       <c r="N142" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O142" s="23" t="n">
         <v>1</v>
@@ -7465,19 +7469,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="143">
       <c r="B143" s="27" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C143" s="28" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D143" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E143" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F143" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G143" s="62" t="n">
         <v>41338.6</v>
@@ -7486,10 +7490,10 @@
         <v>1</v>
       </c>
       <c r="I143" s="83" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J143" s="10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K143" s="29"/>
       <c r="L143" s="23" t="n">
@@ -7497,7 +7501,7 @@
       </c>
       <c r="M143" s="32"/>
       <c r="N143" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O143" s="23" t="n">
         <v>1</v>
@@ -7506,19 +7510,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="144">
       <c r="B144" s="27" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C144" s="28" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D144" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E144" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F144" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G144" s="62" t="n">
         <v>41338.6</v>
@@ -7534,7 +7538,7 @@
       </c>
       <c r="M144" s="32"/>
       <c r="N144" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O144" s="23" t="n">
         <v>1</v>
@@ -7543,19 +7547,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="145">
       <c r="B145" s="27" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C145" s="28" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D145" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E145" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F145" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G145" s="62" t="n">
         <v>41338.6</v>
@@ -7570,7 +7574,7 @@
       </c>
       <c r="M145" s="32"/>
       <c r="N145" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O145" s="23" t="n">
         <v>1</v>
@@ -7579,19 +7583,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="146">
       <c r="B146" s="27" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C146" s="28" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D146" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E146" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F146" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G146" s="62" t="n">
         <v>41338.6</v>
@@ -7600,7 +7604,7 @@
         <v>1</v>
       </c>
       <c r="I146" s="83" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J146" s="29"/>
       <c r="K146" s="29"/>
@@ -7609,7 +7613,7 @@
       </c>
       <c r="M146" s="32"/>
       <c r="N146" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O146" s="23" t="n">
         <v>1</v>
@@ -7618,19 +7622,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="147">
       <c r="B147" s="27" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C147" s="28" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D147" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E147" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F147" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G147" s="62" t="n">
         <v>41338.6</v>
@@ -7646,7 +7650,7 @@
       </c>
       <c r="M147" s="32"/>
       <c r="N147" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O147" s="23" t="n">
         <v>1</v>
@@ -7655,19 +7659,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="148">
       <c r="B148" s="27" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C148" s="28" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D148" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E148" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F148" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G148" s="62" t="n">
         <v>41338.6</v>
@@ -7682,7 +7686,7 @@
       </c>
       <c r="M148" s="32"/>
       <c r="N148" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O148" s="23" t="n">
         <v>1</v>
@@ -7691,19 +7695,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="149">
       <c r="B149" s="27" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C149" s="28" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D149" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E149" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F149" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G149" s="62" t="n">
         <v>41338.6</v>
@@ -7712,7 +7716,7 @@
         <v>1</v>
       </c>
       <c r="I149" s="32" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J149" s="29"/>
       <c r="K149" s="29"/>
@@ -7721,7 +7725,7 @@
       </c>
       <c r="M149" s="32"/>
       <c r="N149" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O149" s="23" t="n">
         <v>1</v>
@@ -7730,19 +7734,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="150">
       <c r="B150" s="27" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C150" s="28" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D150" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E150" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F150" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G150" s="62" t="n">
         <v>41338.6</v>
@@ -7758,7 +7762,7 @@
       </c>
       <c r="M150" s="32"/>
       <c r="N150" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O150" s="23" t="n">
         <v>1</v>
@@ -7767,19 +7771,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="151">
       <c r="B151" s="27" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C151" s="28" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D151" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E151" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F151" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G151" s="62" t="n">
         <v>41338.6041666667</v>
@@ -7795,7 +7799,7 @@
       </c>
       <c r="M151" s="32"/>
       <c r="N151" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O151" s="23" t="n">
         <v>1</v>
@@ -7804,10 +7808,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="69.75" outlineLevel="0" r="152">
       <c r="B152" s="27" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C152" s="46" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F152" s="29"/>
       <c r="G152" s="29"/>
@@ -7820,7 +7824,7 @@
       </c>
       <c r="M152" s="32"/>
       <c r="N152" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O152" s="23" t="n">
         <v>1</v>
@@ -7829,40 +7833,40 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="153">
       <c r="B153" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F153" s="29"/>
       <c r="G153" s="29"/>
       <c r="H153" s="23"/>
       <c r="I153" s="32" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J153" s="29"/>
       <c r="K153" s="29"/>
       <c r="L153" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M153" s="32"/>
       <c r="N153" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O153" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P153" s="33"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="75" outlineLevel="0" r="154">
       <c r="B154" s="84" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C154" s="65" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D154" s="28" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E154" s="28" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F154" s="29"/>
       <c r="G154" s="29"/>
@@ -7871,30 +7875,30 @@
       <c r="J154" s="29"/>
       <c r="K154" s="29"/>
       <c r="L154" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M154" s="32"/>
       <c r="N154" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O154" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P154" s="33"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="49.5" outlineLevel="0" r="155" s="59">
       <c r="A155" s="63"/>
       <c r="B155" s="84" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C155" s="65" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D155" s="28" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E155" s="28" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F155" s="54"/>
       <c r="G155" s="54"/>
@@ -7906,38 +7910,38 @@
         <v>1</v>
       </c>
       <c r="M155" s="56" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N155" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O155" s="67" t="n">
         <v>1</v>
       </c>
       <c r="P155" s="58" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AMJ155" s="0"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="64.5" outlineLevel="0" r="156" s="59">
       <c r="A156" s="63"/>
       <c r="B156" s="84" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C156" s="65" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D156" s="28" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E156" s="28" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F156" s="54"/>
       <c r="G156" s="54"/>
       <c r="H156" s="67"/>
       <c r="I156" s="56" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J156" s="54"/>
       <c r="K156" s="54"/>
@@ -7946,7 +7950,7 @@
       </c>
       <c r="M156" s="56"/>
       <c r="N156" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O156" s="67" t="n">
         <v>1</v>
@@ -7957,16 +7961,16 @@
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="157" s="59">
       <c r="A157" s="63"/>
       <c r="B157" s="84" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C157" s="65" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D157" s="28" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E157" s="28" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F157" s="54"/>
       <c r="G157" s="54"/>
@@ -7979,7 +7983,7 @@
       </c>
       <c r="M157" s="56"/>
       <c r="N157" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O157" s="67" t="n">
         <v>1</v>
@@ -7989,7 +7993,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="158">
       <c r="B158" s="25" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F158" s="29"/>
       <c r="G158" s="29"/>
@@ -8005,192 +8009,192 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="86.25" outlineLevel="0" r="159">
       <c r="B159" s="72" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C159" s="28" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D159" s="28" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E159" s="28" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F159" s="29"/>
       <c r="G159" s="29"/>
       <c r="H159" s="23"/>
       <c r="I159" s="49" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J159" s="29"/>
       <c r="K159" s="29"/>
       <c r="L159" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M159" s="49" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N159" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O159" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P159" s="73" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="84" outlineLevel="0" r="160">
       <c r="B160" s="72" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C160" s="28" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D160" s="28" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E160" s="28" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F160" s="29"/>
       <c r="G160" s="29"/>
       <c r="H160" s="23"/>
       <c r="I160" s="49" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J160" s="29"/>
       <c r="K160" s="29"/>
       <c r="L160" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M160" s="49" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N160" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O160" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P160" s="73" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="69.75" outlineLevel="0" r="161">
       <c r="B161" s="72" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C161" s="28" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D161" s="28" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E161" s="28" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F161" s="29"/>
       <c r="G161" s="29"/>
       <c r="H161" s="23"/>
       <c r="I161" s="49" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J161" s="29"/>
       <c r="K161" s="29"/>
       <c r="L161" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M161" s="49" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N161" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O161" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P161" s="73" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="86.25" outlineLevel="0" r="162">
       <c r="B162" s="72" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C162" s="28" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D162" s="28" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E162" s="28" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F162" s="29"/>
       <c r="G162" s="29"/>
       <c r="H162" s="23"/>
       <c r="I162" s="49" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J162" s="29"/>
       <c r="K162" s="29"/>
       <c r="L162" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M162" s="49" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N162" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O162" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P162" s="73" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="79.5" outlineLevel="0" r="163">
       <c r="B163" s="72" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C163" s="28" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D163" s="28" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E163" s="28" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F163" s="29"/>
       <c r="G163" s="29"/>
       <c r="H163" s="23"/>
       <c r="I163" s="49" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J163" s="29"/>
       <c r="K163" s="29"/>
       <c r="L163" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M163" s="49" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N163" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O163" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P163" s="73" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="164">
       <c r="B164" s="25" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F164" s="29"/>
       <c r="G164" s="29"/>
@@ -8207,10 +8211,10 @@
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="78.75" outlineLevel="0" r="165" s="59">
       <c r="A165" s="53"/>
       <c r="B165" s="72" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C165" s="46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D165" s="46"/>
       <c r="E165" s="46"/>
@@ -8218,24 +8222,24 @@
       <c r="G165" s="54"/>
       <c r="H165" s="48"/>
       <c r="I165" s="49" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J165" s="54"/>
       <c r="K165" s="54"/>
       <c r="L165" s="67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M165" s="49" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N165" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O165" s="67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P165" s="73" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AMJ165" s="0"/>
     </row>
@@ -8259,7 +8263,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="167">
       <c r="B167" s="25" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F167" s="61"/>
       <c r="G167" s="61"/>
@@ -8270,10 +8274,10 @@
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="168" s="85">
       <c r="A168" s="53"/>
       <c r="B168" s="72" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C168" s="46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D168" s="46"/>
       <c r="E168" s="46"/>
@@ -8281,34 +8285,34 @@
       <c r="G168" s="54"/>
       <c r="H168" s="67"/>
       <c r="I168" s="49" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J168" s="54"/>
       <c r="K168" s="54"/>
       <c r="L168" s="67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M168" s="49" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N168" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O168" s="67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P168" s="73" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AMJ168" s="0"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="169" s="85">
       <c r="A169" s="53"/>
       <c r="B169" s="72" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C169" s="46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D169" s="46"/>
       <c r="E169" s="46"/>
@@ -8316,42 +8320,42 @@
       <c r="G169" s="54"/>
       <c r="H169" s="67"/>
       <c r="I169" s="49" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J169" s="54"/>
       <c r="K169" s="54"/>
       <c r="L169" s="67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M169" s="49" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N169" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O169" s="67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P169" s="73" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AMJ169" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="170">
       <c r="B170" s="28" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C170" s="28" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D170" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E170" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F170" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G170" s="62" t="n">
         <v>41338.6131944444</v>
@@ -8360,7 +8364,7 @@
         <v>1</v>
       </c>
       <c r="I170" s="32" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="J170" s="29"/>
       <c r="K170" s="29"/>
@@ -8369,7 +8373,7 @@
       </c>
       <c r="M170" s="32"/>
       <c r="N170" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O170" s="23" t="n">
         <v>1</v>
@@ -8378,56 +8382,56 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="171">
       <c r="B171" s="28" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C171" s="28" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D171" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E171" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F171" s="29"/>
       <c r="G171" s="29"/>
       <c r="H171" s="23"/>
       <c r="I171" s="32" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J171" s="29"/>
       <c r="K171" s="29"/>
       <c r="L171" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M171" s="32" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N171" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O171" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P171" s="33" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="172">
       <c r="B172" s="28" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C172" s="28" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D172" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E172" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F172" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G172" s="62" t="n">
         <v>41338.6</v>
@@ -8436,7 +8440,7 @@
         <v>1</v>
       </c>
       <c r="I172" s="32" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="J172" s="29"/>
       <c r="K172" s="29"/>
@@ -8445,7 +8449,7 @@
       </c>
       <c r="M172" s="32"/>
       <c r="N172" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O172" s="23" t="n">
         <v>1</v>
@@ -8454,19 +8458,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="173">
       <c r="B173" s="28" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C173" s="28" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D173" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E173" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F173" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G173" s="62" t="n">
         <v>41338.6138888889</v>
@@ -8482,7 +8486,7 @@
       </c>
       <c r="M173" s="32"/>
       <c r="N173" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O173" s="23" t="n">
         <v>1</v>
@@ -8491,19 +8495,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="174">
       <c r="B174" s="28" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C174" s="28" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D174" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E174" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F174" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G174" s="62" t="n">
         <v>41338.6138888889</v>
@@ -8519,7 +8523,7 @@
       </c>
       <c r="M174" s="32"/>
       <c r="N174" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O174" s="23" t="n">
         <v>1</v>
@@ -8528,19 +8532,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="175">
       <c r="B175" s="28" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C175" s="28" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D175" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E175" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F175" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G175" s="62" t="n">
         <v>41338.6138888889</v>
@@ -8556,7 +8560,7 @@
       </c>
       <c r="M175" s="32"/>
       <c r="N175" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O175" s="23" t="n">
         <v>1</v>
@@ -8565,19 +8569,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="176">
       <c r="B176" s="28" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C176" s="28" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D176" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E176" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F176" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G176" s="62" t="n">
         <v>41338.6138888889</v>
@@ -8593,7 +8597,7 @@
       </c>
       <c r="M176" s="32"/>
       <c r="N176" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O176" s="23" t="n">
         <v>1</v>
@@ -8602,19 +8606,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="177">
       <c r="B177" s="28" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C177" s="28" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D177" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E177" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F177" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G177" s="62" t="n">
         <v>41338.6138888889</v>
@@ -8630,7 +8634,7 @@
       </c>
       <c r="M177" s="32"/>
       <c r="N177" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O177" s="23" t="n">
         <v>1</v>
@@ -8639,19 +8643,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="178">
       <c r="B178" s="28" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C178" s="28" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D178" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E178" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F178" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G178" s="62" t="n">
         <v>41338.6138888889</v>
@@ -8667,7 +8671,7 @@
       </c>
       <c r="M178" s="32"/>
       <c r="N178" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O178" s="23" t="n">
         <v>1</v>
@@ -8676,19 +8680,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="179">
       <c r="B179" s="28" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C179" s="28" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D179" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E179" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F179" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G179" s="62" t="n">
         <v>41338.6138888889</v>
@@ -8704,7 +8708,7 @@
       </c>
       <c r="M179" s="32"/>
       <c r="N179" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O179" s="23" t="n">
         <v>1</v>
@@ -8713,19 +8717,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="180">
       <c r="B180" s="28" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C180" s="28" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D180" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E180" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F180" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G180" s="62" t="n">
         <v>41338.6138888889</v>
@@ -8741,7 +8745,7 @@
       </c>
       <c r="M180" s="32"/>
       <c r="N180" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O180" s="23" t="n">
         <v>1</v>
@@ -8750,19 +8754,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="181">
       <c r="B181" s="28" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C181" s="28" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D181" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E181" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F181" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G181" s="62" t="n">
         <v>41338.6138888889</v>
@@ -8771,7 +8775,7 @@
         <v>1</v>
       </c>
       <c r="I181" s="32" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="J181" s="29"/>
       <c r="K181" s="29"/>
@@ -8780,7 +8784,7 @@
       </c>
       <c r="M181" s="32"/>
       <c r="N181" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O181" s="23" t="n">
         <v>1</v>
@@ -8789,19 +8793,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="182">
       <c r="B182" s="28" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C182" s="28" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D182" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E182" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F182" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G182" s="62" t="n">
         <v>41338.6138888889</v>
@@ -8810,7 +8814,7 @@
         <v>1</v>
       </c>
       <c r="I182" s="32" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="J182" s="29"/>
       <c r="K182" s="29"/>
@@ -8819,7 +8823,7 @@
       </c>
       <c r="M182" s="32"/>
       <c r="N182" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O182" s="23" t="n">
         <v>1</v>
@@ -8828,19 +8832,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="183">
       <c r="B183" s="28" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C183" s="28" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D183" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E183" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F183" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G183" s="62" t="n">
         <v>41338.6138888889</v>
@@ -8849,7 +8853,7 @@
         <v>1</v>
       </c>
       <c r="I183" s="32" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="J183" s="29"/>
       <c r="K183" s="29"/>
@@ -8858,7 +8862,7 @@
       </c>
       <c r="M183" s="32"/>
       <c r="N183" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O183" s="23" t="n">
         <v>1</v>
@@ -8867,20 +8871,20 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="184">
       <c r="B184" s="27" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C184" s="28" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E184" s="10"/>
       <c r="F184" s="29"/>
       <c r="G184" s="29"/>
       <c r="H184" s="23"/>
       <c r="I184" s="32" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="J184" s="29"/>
       <c r="K184" s="29"/>
@@ -8889,27 +8893,27 @@
       </c>
       <c r="M184" s="32"/>
       <c r="N184" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O184" s="23" t="n">
         <v>1</v>
       </c>
       <c r="P184" s="33" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="185">
       <c r="B185" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C185" s="28" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F185" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G185" s="62" t="n">
         <v>41338.6194444444</v>
@@ -8925,7 +8929,7 @@
       </c>
       <c r="M185" s="32"/>
       <c r="N185" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O185" s="23" t="n">
         <v>1</v>
@@ -8934,10 +8938,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="186">
       <c r="B186" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F186" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G186" s="62" t="n">
         <v>41338.6194444444</v>
@@ -8953,7 +8957,7 @@
       </c>
       <c r="M186" s="32"/>
       <c r="N186" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O186" s="23" t="n">
         <v>1</v>
@@ -8962,19 +8966,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="53.25" outlineLevel="0" r="187">
       <c r="B187" s="84" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C187" s="65" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D187" s="28" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E187" s="28" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F187" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G187" s="62" t="n">
         <v>41338.6194444444</v>
@@ -8990,7 +8994,7 @@
       </c>
       <c r="M187" s="32"/>
       <c r="N187" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O187" s="23" t="n">
         <v>1</v>
@@ -9000,19 +9004,19 @@
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="59.25" outlineLevel="0" r="188" s="59">
       <c r="A188" s="63"/>
       <c r="B188" s="84" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C188" s="65" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D188" s="28" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E188" s="28" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F188" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G188" s="66" t="n">
         <v>41338.6194444444</v>
@@ -9028,7 +9032,7 @@
       </c>
       <c r="M188" s="56"/>
       <c r="N188" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O188" s="67" t="n">
         <v>1</v>
@@ -9039,19 +9043,19 @@
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="58.5" outlineLevel="0" r="189" s="59">
       <c r="A189" s="63"/>
       <c r="B189" s="84" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C189" s="65" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D189" s="28" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E189" s="28" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F189" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G189" s="66" t="n">
         <v>41338.6194444444</v>
@@ -9060,7 +9064,7 @@
         <v>9</v>
       </c>
       <c r="I189" s="56" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="J189" s="54"/>
       <c r="K189" s="54"/>
@@ -9069,7 +9073,7 @@
       </c>
       <c r="M189" s="56"/>
       <c r="N189" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O189" s="67" t="n">
         <v>1</v>
@@ -9080,19 +9084,19 @@
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="65.25" outlineLevel="0" r="190" s="59">
       <c r="A190" s="63"/>
       <c r="B190" s="84" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C190" s="65" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D190" s="28" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E190" s="28" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F190" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G190" s="66" t="n">
         <v>41338.6263888889</v>
@@ -9108,7 +9112,7 @@
       </c>
       <c r="M190" s="56"/>
       <c r="N190" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O190" s="67" t="n">
         <v>1</v>
@@ -9119,19 +9123,19 @@
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="46.5" outlineLevel="0" r="191" s="59">
       <c r="A191" s="63"/>
       <c r="B191" s="84" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C191" s="65" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D191" s="28" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E191" s="28" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F191" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G191" s="66" t="n">
         <v>41338.6263888889</v>
@@ -9147,7 +9151,7 @@
       </c>
       <c r="M191" s="56"/>
       <c r="N191" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O191" s="67" t="n">
         <v>1</v>
@@ -9158,19 +9162,19 @@
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="54.75" outlineLevel="0" r="192" s="59">
       <c r="A192" s="63"/>
       <c r="B192" s="84" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C192" s="65" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D192" s="28" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E192" s="28" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F192" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G192" s="66" t="n">
         <v>41338.6263888889</v>
@@ -9179,7 +9183,7 @@
         <v>9</v>
       </c>
       <c r="I192" s="56" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="J192" s="54"/>
       <c r="K192" s="54"/>
@@ -9187,32 +9191,32 @@
         <v>1</v>
       </c>
       <c r="M192" s="56" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N192" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O192" s="67" t="n">
         <v>1</v>
       </c>
       <c r="P192" s="58" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AMJ192" s="0"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="58.5" outlineLevel="0" r="193" s="59">
       <c r="A193" s="63"/>
       <c r="B193" s="84" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C193" s="65" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D193" s="28" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E193" s="28" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F193" s="54"/>
       <c r="G193" s="54"/>
@@ -9225,7 +9229,7 @@
       </c>
       <c r="M193" s="56"/>
       <c r="N193" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O193" s="67" t="n">
         <v>1</v>
@@ -9236,19 +9240,19 @@
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="54" outlineLevel="0" r="194" s="59">
       <c r="A194" s="63"/>
       <c r="B194" s="84" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C194" s="65" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D194" s="28" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E194" s="28" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F194" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G194" s="66" t="n">
         <v>41338.6298611111</v>
@@ -9264,7 +9268,7 @@
       </c>
       <c r="M194" s="56"/>
       <c r="N194" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O194" s="67" t="n">
         <v>1</v>
@@ -9275,13 +9279,13 @@
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="60.75" outlineLevel="0" r="195" s="59">
       <c r="A195" s="53"/>
       <c r="B195" s="72" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C195" s="46"/>
       <c r="D195" s="46"/>
       <c r="E195" s="46"/>
       <c r="F195" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G195" s="66" t="n">
         <v>41338.6263888889</v>
@@ -9290,24 +9294,24 @@
         <v>9</v>
       </c>
       <c r="I195" s="49" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="J195" s="54"/>
       <c r="K195" s="54"/>
       <c r="L195" s="67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M195" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="N195" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="O195" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="N195" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="O195" s="67" t="s">
-        <v>70</v>
-      </c>
       <c r="P195" s="73" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AMJ195" s="0"/>
     </row>
@@ -9331,7 +9335,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="26.1" outlineLevel="0" r="197">
       <c r="B197" s="25" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F197" s="29"/>
       <c r="G197" s="29"/>
@@ -9348,15 +9352,15 @@
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="26.1" outlineLevel="0" r="198" s="59">
       <c r="A198" s="63"/>
       <c r="B198" s="84" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C198" s="86" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D198" s="87"/>
       <c r="E198" s="87"/>
       <c r="F198" s="54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G198" s="66" t="n">
         <v>4813.59444444445</v>
@@ -9365,10 +9369,10 @@
         <v>1</v>
       </c>
       <c r="I198" s="56" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J198" s="54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K198" s="66" t="inlineStr">
         <f aca="true">NOW()</f>
@@ -9380,31 +9384,31 @@
         <v>1</v>
       </c>
       <c r="M198" s="56" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N198" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O198" s="67" t="n">
         <v>1</v>
       </c>
       <c r="P198" s="58" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AMJ198" s="0"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="26.1" outlineLevel="0" r="199" s="59">
       <c r="A199" s="63"/>
       <c r="B199" s="84" t="s">
+        <v>470</v>
+      </c>
+      <c r="C199" s="86" t="s">
         <v>469</v>
-      </c>
-      <c r="C199" s="86" t="s">
-        <v>468</v>
       </c>
       <c r="D199" s="87"/>
       <c r="E199" s="87"/>
       <c r="F199" s="54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G199" s="66" t="n">
         <v>4813.59444444445</v>
@@ -9414,7 +9418,7 @@
       </c>
       <c r="I199" s="56"/>
       <c r="J199" s="54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K199" s="66" t="inlineStr">
         <f aca="true">NOW()</f>
@@ -9427,7 +9431,7 @@
       </c>
       <c r="M199" s="56"/>
       <c r="N199" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O199" s="67" t="n">
         <v>1</v>
@@ -9437,10 +9441,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="26.1" outlineLevel="0" r="200">
       <c r="B200" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F200" s="29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G200" s="66" t="n">
         <v>4813.59444444445</v>
@@ -9450,7 +9454,7 @@
       </c>
       <c r="I200" s="32"/>
       <c r="J200" s="29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K200" s="62" t="inlineStr">
         <f aca="true">NOW()</f>
@@ -9463,7 +9467,7 @@
       </c>
       <c r="M200" s="32"/>
       <c r="N200" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O200" s="23" t="n">
         <v>1</v>
@@ -9472,74 +9476,74 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="26.1" outlineLevel="0" r="201">
       <c r="B201" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F201" s="29"/>
       <c r="G201" s="66" t="n">
         <v>4813.59444444445</v>
       </c>
       <c r="H201" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I201" s="32"/>
       <c r="J201" s="29"/>
       <c r="K201" s="29"/>
       <c r="L201" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M201" s="32"/>
       <c r="N201" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O201" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P201" s="33"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="26.1" outlineLevel="0" r="202">
       <c r="B202" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F202" s="29"/>
       <c r="G202" s="66" t="n">
         <v>4813.59444444445</v>
       </c>
       <c r="H202" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I202" s="32"/>
       <c r="J202" s="29"/>
       <c r="K202" s="29"/>
       <c r="L202" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M202" s="32"/>
       <c r="N202" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O202" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P202" s="33"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="26.1" outlineLevel="0" r="203">
       <c r="B203" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F203" s="29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G203" s="66" t="n">
         <v>4813.59444444445</v>
       </c>
       <c r="H203" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I203" s="32" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J203" s="29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K203" s="62" t="inlineStr">
         <f aca="true">NOW()</f>
@@ -9548,26 +9552,26 @@
         </is>
       </c>
       <c r="L203" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M203" s="32" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N203" s="29"/>
       <c r="O203" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P203" s="33" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="37.35" outlineLevel="0" r="204" s="59">
       <c r="A204" s="63"/>
       <c r="B204" s="84" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C204" s="86" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D204" s="87"/>
       <c r="E204" s="87"/>
@@ -9580,28 +9584,28 @@
       <c r="J204" s="54"/>
       <c r="K204" s="54"/>
       <c r="L204" s="67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M204" s="56" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N204" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O204" s="67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P204" s="58" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AMJ204" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="26.1" outlineLevel="0" r="205">
       <c r="B205" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F205" s="29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G205" s="66" t="n">
         <v>4813.59444444445</v>
@@ -9610,10 +9614,10 @@
         <v>1</v>
       </c>
       <c r="I205" s="32" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="J205" s="29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K205" s="62" t="inlineStr">
         <f aca="true">NOW()</f>
@@ -9625,24 +9629,24 @@
         <v>1</v>
       </c>
       <c r="M205" s="32" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N205" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O205" s="23" t="n">
         <v>1</v>
       </c>
       <c r="P205" s="33" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="26.1" outlineLevel="0" r="206">
       <c r="B206" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F206" s="29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G206" s="66" t="n">
         <v>4813.59444444445</v>
@@ -9651,10 +9655,10 @@
         <v>1</v>
       </c>
       <c r="I206" s="32" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="J206" s="29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K206" s="62" t="inlineStr">
         <f aca="true">NOW()</f>
@@ -9666,25 +9670,25 @@
         <v>1</v>
       </c>
       <c r="M206" s="32" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N206" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O206" s="23" t="n">
         <v>1</v>
       </c>
       <c r="P206" s="33" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Q206" s="26"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.9" outlineLevel="0" r="207">
       <c r="B207" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F207" s="29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G207" s="66" t="n">
         <v>4813.59444444445</v>
@@ -9693,10 +9697,10 @@
         <v>9</v>
       </c>
       <c r="I207" s="32" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="J207" s="29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K207" s="62" t="inlineStr">
         <f aca="true">NOW()</f>
@@ -9708,24 +9712,24 @@
         <v>9</v>
       </c>
       <c r="M207" s="32" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N207" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O207" s="23" t="n">
         <v>9</v>
       </c>
       <c r="P207" s="33" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="26.1" outlineLevel="0" r="208">
       <c r="B208" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F208" s="29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G208" s="66" t="n">
         <v>4813.59444444445</v>
@@ -9734,10 +9738,10 @@
         <v>1</v>
       </c>
       <c r="I208" s="32" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="J208" s="29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K208" s="62" t="inlineStr">
         <f aca="true">NOW()</f>
@@ -9749,16 +9753,16 @@
         <v>1</v>
       </c>
       <c r="M208" s="32" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N208" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O208" s="23" t="n">
         <v>1</v>
       </c>
       <c r="P208" s="33" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="209">
@@ -9781,7 +9785,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="210">
       <c r="B210" s="25" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F210" s="61"/>
       <c r="G210" s="61"/>
@@ -9791,10 +9795,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="211">
       <c r="B211" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F211" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G211" s="62" t="n">
         <v>41338.6326388889</v>
@@ -9803,10 +9807,10 @@
         <v>1</v>
       </c>
       <c r="I211" s="32" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="J211" s="29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K211" s="62" t="inlineStr">
         <f aca="true">NOW()</f>
@@ -9818,24 +9822,24 @@
         <v>1</v>
       </c>
       <c r="M211" s="32" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N211" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O211" s="23" t="n">
         <v>1</v>
       </c>
       <c r="P211" s="33" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="212">
       <c r="B212" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F212" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G212" s="62" t="n">
         <v>41338.6326388889</v>
@@ -9844,7 +9848,7 @@
         <v>1</v>
       </c>
       <c r="I212" s="32" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J212" s="29"/>
       <c r="K212" s="29"/>
@@ -9853,7 +9857,7 @@
       </c>
       <c r="M212" s="32"/>
       <c r="N212" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O212" s="23" t="n">
         <v>1</v>
@@ -9862,10 +9866,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="213">
       <c r="B213" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F213" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G213" s="62" t="n">
         <v>41338.6326388889</v>
@@ -9874,7 +9878,7 @@
         <v>1</v>
       </c>
       <c r="I213" s="32" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="J213" s="29"/>
       <c r="K213" s="29"/>
@@ -9883,7 +9887,7 @@
       </c>
       <c r="M213" s="32"/>
       <c r="N213" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O213" s="23" t="n">
         <v>1</v>
@@ -9892,10 +9896,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="214">
       <c r="B214" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F214" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G214" s="62" t="n">
         <v>41338.6326388889</v>
@@ -9904,7 +9908,7 @@
         <v>1</v>
       </c>
       <c r="I214" s="32" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="J214" s="29"/>
       <c r="K214" s="29"/>
@@ -9913,7 +9917,7 @@
       </c>
       <c r="M214" s="32"/>
       <c r="N214" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O214" s="23" t="n">
         <v>1</v>
@@ -9923,15 +9927,15 @@
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="215" s="59">
       <c r="A215" s="63"/>
       <c r="B215" s="84" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C215" s="86" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D215" s="87"/>
       <c r="E215" s="87"/>
       <c r="F215" s="54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G215" s="66" t="n">
         <v>41338.6326388889</v>
@@ -9947,7 +9951,7 @@
       </c>
       <c r="M215" s="56"/>
       <c r="N215" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O215" s="67" t="n">
         <v>1</v>
@@ -9958,7 +9962,7 @@
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="216" s="85">
       <c r="A216" s="53"/>
       <c r="B216" s="72" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C216" s="46"/>
       <c r="D216" s="46"/>
@@ -9967,31 +9971,31 @@
       <c r="G216" s="54"/>
       <c r="H216" s="67"/>
       <c r="I216" s="56" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="J216" s="54"/>
       <c r="K216" s="54"/>
       <c r="L216" s="67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M216" s="56" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N216" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O216" s="67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P216" s="58" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AMJ216" s="0"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="60.75" outlineLevel="0" r="217" s="85">
       <c r="A217" s="53"/>
       <c r="B217" s="72" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C217" s="46"/>
       <c r="D217" s="46"/>
@@ -10000,7 +10004,7 @@
       <c r="G217" s="54"/>
       <c r="H217" s="67"/>
       <c r="I217" s="49" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J217" s="54"/>
       <c r="K217" s="54"/>
@@ -10008,16 +10012,16 @@
         <v>1</v>
       </c>
       <c r="M217" s="49" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N217" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O217" s="67" t="n">
         <v>1</v>
       </c>
       <c r="P217" s="73" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AMJ217" s="0"/>
     </row>
@@ -10041,7 +10045,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30.75" outlineLevel="0" r="219">
       <c r="B219" s="88" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C219" s="87"/>
       <c r="F219" s="61"/>
@@ -10052,10 +10056,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="220">
       <c r="B220" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F220" s="54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G220" s="62" t="n">
         <v>41338.6326388889</v>
@@ -10071,7 +10075,7 @@
       </c>
       <c r="M220" s="32"/>
       <c r="N220" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O220" s="23" t="n">
         <v>1</v>
@@ -10080,7 +10084,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="221">
       <c r="B221" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F221" s="29"/>
       <c r="G221" s="29"/>
@@ -10093,7 +10097,7 @@
       </c>
       <c r="M221" s="32"/>
       <c r="N221" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O221" s="23" t="n">
         <v>1</v>
@@ -10102,10 +10106,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="222">
       <c r="B222" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F222" s="54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G222" s="62" t="n">
         <v>41338.6326388889</v>
@@ -10121,7 +10125,7 @@
       </c>
       <c r="M222" s="32"/>
       <c r="N222" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O222" s="23" t="n">
         <v>1</v>
@@ -10130,10 +10134,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="75" outlineLevel="0" r="223">
       <c r="B223" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F223" s="29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G223" s="62" t="n">
         <v>41338.6666666667</v>
@@ -10149,7 +10153,7 @@
       </c>
       <c r="M223" s="32"/>
       <c r="N223" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O223" s="23" t="n">
         <v>1</v>
@@ -10158,7 +10162,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="142.5" outlineLevel="0" r="224">
       <c r="B224" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F224" s="29"/>
       <c r="G224" s="29"/>
@@ -10170,21 +10174,21 @@
         <v>1</v>
       </c>
       <c r="M224" s="32" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="N224" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O224" s="23" t="n">
         <v>1</v>
       </c>
       <c r="P224" s="33" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="225">
       <c r="B225" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F225" s="29"/>
       <c r="G225" s="29"/>
@@ -10196,21 +10200,21 @@
         <v>1</v>
       </c>
       <c r="M225" s="32" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N225" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O225" s="23" t="n">
         <v>1</v>
       </c>
       <c r="P225" s="33" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="226">
       <c r="B226" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F226" s="29"/>
       <c r="G226" s="29"/>
@@ -10219,27 +10223,27 @@
       <c r="J226" s="29"/>
       <c r="K226" s="29"/>
       <c r="L226" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M226" s="32" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N226" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O226" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P226" s="33" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="227">
       <c r="B227" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F227" s="54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G227" s="62" t="n">
         <v>41338.6326388889</v>
@@ -10255,7 +10259,7 @@
       </c>
       <c r="M227" s="32"/>
       <c r="N227" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O227" s="23" t="n">
         <v>1</v>
@@ -10265,15 +10269,15 @@
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="228" s="59">
       <c r="A228" s="63"/>
       <c r="B228" s="84" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C228" s="86" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D228" s="87"/>
       <c r="E228" s="87"/>
       <c r="F228" s="54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G228" s="66" t="n">
         <v>41338.6326388889</v>
@@ -10289,7 +10293,7 @@
       </c>
       <c r="M228" s="56"/>
       <c r="N228" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O228" s="67" t="n">
         <v>1</v>
@@ -10299,10 +10303,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="229">
       <c r="B229" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F229" s="54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G229" s="62" t="n">
         <v>41338.6326388889</v>
@@ -10318,7 +10322,7 @@
       </c>
       <c r="M229" s="32"/>
       <c r="N229" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O229" s="23" t="n">
         <v>1</v>
@@ -10328,7 +10332,7 @@
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="230" s="85">
       <c r="A230" s="53"/>
       <c r="B230" s="72" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C230" s="46"/>
       <c r="D230" s="46"/>
@@ -10337,19 +10341,19 @@
       <c r="G230" s="54"/>
       <c r="H230" s="67"/>
       <c r="I230" s="56" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="J230" s="54"/>
       <c r="K230" s="54"/>
       <c r="L230" s="67" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M230" s="56"/>
       <c r="N230" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O230" s="67" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P230" s="58"/>
       <c r="AMJ230" s="0"/>
@@ -10357,7 +10361,7 @@
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="231" s="85">
       <c r="A231" s="53"/>
       <c r="B231" s="72" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C231" s="46"/>
       <c r="D231" s="46"/>
@@ -10366,7 +10370,7 @@
       <c r="G231" s="54"/>
       <c r="H231" s="67"/>
       <c r="I231" s="56" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="J231" s="54"/>
       <c r="K231" s="54"/>
@@ -10374,23 +10378,23 @@
         <v>1</v>
       </c>
       <c r="M231" s="56" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N231" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O231" s="67" t="n">
         <v>1</v>
       </c>
       <c r="P231" s="58" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AMJ231" s="0"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="232" s="85">
       <c r="A232" s="53"/>
       <c r="B232" s="72" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C232" s="46"/>
       <c r="D232" s="46"/>
@@ -10399,7 +10403,7 @@
       <c r="G232" s="54"/>
       <c r="H232" s="67"/>
       <c r="I232" s="56" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="J232" s="54"/>
       <c r="K232" s="54"/>
@@ -10407,16 +10411,16 @@
         <v>1</v>
       </c>
       <c r="M232" s="56" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N232" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O232" s="67" t="n">
         <v>1</v>
       </c>
       <c r="P232" s="58" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AMJ232" s="0"/>
     </row>
@@ -10440,10 +10444,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30.75" outlineLevel="0" r="234">
       <c r="B234" s="51" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C234" s="51" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F234" s="29"/>
       <c r="G234" s="29"/>
@@ -10459,10 +10463,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="235">
       <c r="B235" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F235" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G235" s="62" t="inlineStr">
         <f aca="true">NOW()</f>
@@ -10481,7 +10485,7 @@
       </c>
       <c r="M235" s="32"/>
       <c r="N235" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O235" s="23" t="n">
         <v>1</v>
@@ -10490,10 +10494,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="33.95" outlineLevel="0" r="236">
       <c r="B236" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F236" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G236" s="62" t="inlineStr">
         <f aca="true">NOW()</f>
@@ -10512,7 +10516,7 @@
       </c>
       <c r="M236" s="32"/>
       <c r="N236" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O236" s="23" t="n">
         <v>1</v>
@@ -10522,13 +10526,13 @@
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="237" s="59">
       <c r="A237" s="53"/>
       <c r="B237" s="72" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C237" s="46"/>
       <c r="D237" s="46"/>
       <c r="E237" s="46"/>
       <c r="F237" s="54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G237" s="66" t="inlineStr">
         <f aca="true">NOW()</f>
@@ -10540,33 +10544,33 @@
         <v>9</v>
       </c>
       <c r="I237" s="56" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="J237" s="54"/>
       <c r="K237" s="54"/>
       <c r="L237" s="67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M237" s="56" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N237" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O237" s="67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P237" s="58" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AMJ237" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="238">
       <c r="B238" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F238" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G238" s="62" t="inlineStr">
         <f aca="true">NOW()</f>
@@ -10578,7 +10582,7 @@
         <v>1</v>
       </c>
       <c r="I238" s="32" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="J238" s="29"/>
       <c r="K238" s="29"/>
@@ -10587,7 +10591,7 @@
       </c>
       <c r="M238" s="32"/>
       <c r="N238" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O238" s="23" t="n">
         <v>1</v>
@@ -10596,10 +10600,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="100.7" outlineLevel="0" r="239">
       <c r="B239" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F239" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G239" s="62" t="inlineStr">
         <f aca="true">NOW()</f>
@@ -10611,7 +10615,7 @@
         <v>0</v>
       </c>
       <c r="I239" s="32" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="J239" s="29"/>
       <c r="K239" s="29"/>
@@ -10619,24 +10623,24 @@
         <v>1</v>
       </c>
       <c r="M239" s="32" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N239" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O239" s="23" t="n">
         <v>1</v>
       </c>
       <c r="P239" s="33" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30.75" outlineLevel="0" r="240">
       <c r="B240" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F240" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G240" s="62" t="inlineStr">
         <f aca="true">NOW()</f>
@@ -10648,19 +10652,19 @@
         <v>9</v>
       </c>
       <c r="I240" s="32" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="J240" s="29"/>
       <c r="K240" s="29"/>
       <c r="L240" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M240" s="32"/>
       <c r="N240" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O240" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P240" s="33"/>
     </row>
@@ -10684,7 +10688,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="242">
       <c r="B242" s="51" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F242" s="29"/>
       <c r="G242" s="29"/>
@@ -10700,16 +10704,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="54" outlineLevel="0" r="243">
       <c r="B243" s="27" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C243" s="46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D243" s="28" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E243" s="28" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F243" s="29"/>
       <c r="G243" s="29"/>
@@ -10718,33 +10722,33 @@
       <c r="J243" s="29"/>
       <c r="K243" s="29"/>
       <c r="L243" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M243" s="32" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N243" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O243" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P243" s="33" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="49.5" outlineLevel="0" r="244">
       <c r="B244" s="27" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C244" s="46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D244" s="28" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E244" s="28" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F244" s="29"/>
       <c r="G244" s="29"/>
@@ -10753,33 +10757,33 @@
       <c r="J244" s="29"/>
       <c r="K244" s="29"/>
       <c r="L244" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M244" s="32" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N244" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O244" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P244" s="33" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="54" outlineLevel="0" r="245">
       <c r="B245" s="27" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C245" s="46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D245" s="28" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E245" s="28" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F245" s="29"/>
       <c r="G245" s="29"/>
@@ -10788,33 +10792,33 @@
       <c r="J245" s="29"/>
       <c r="K245" s="29"/>
       <c r="L245" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M245" s="32" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N245" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O245" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P245" s="33" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="49.5" outlineLevel="0" r="246">
       <c r="B246" s="27" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C246" s="46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D246" s="28" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E246" s="28" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F246" s="29"/>
       <c r="G246" s="29"/>
@@ -10823,33 +10827,33 @@
       <c r="J246" s="29"/>
       <c r="K246" s="29"/>
       <c r="L246" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M246" s="32" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N246" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O246" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P246" s="33" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="54" outlineLevel="0" r="247">
       <c r="B247" s="27" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C247" s="46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D247" s="28" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E247" s="28" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F247" s="29"/>
       <c r="G247" s="29"/>
@@ -10858,33 +10862,33 @@
       <c r="J247" s="29"/>
       <c r="K247" s="29"/>
       <c r="L247" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M247" s="32" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N247" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O247" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P247" s="33" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="49.5" outlineLevel="0" r="248">
       <c r="B248" s="27" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C248" s="46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D248" s="28" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E248" s="28" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F248" s="29"/>
       <c r="G248" s="29"/>
@@ -10893,33 +10897,33 @@
       <c r="J248" s="29"/>
       <c r="K248" s="29"/>
       <c r="L248" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M248" s="32" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N248" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O248" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P248" s="33" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="54" outlineLevel="0" r="249">
       <c r="B249" s="27" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C249" s="46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D249" s="28" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E249" s="28" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F249" s="29"/>
       <c r="G249" s="29"/>
@@ -10928,33 +10932,33 @@
       <c r="J249" s="29"/>
       <c r="K249" s="29"/>
       <c r="L249" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M249" s="32" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N249" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O249" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P249" s="33" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="54" outlineLevel="0" r="250">
       <c r="B250" s="27" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C250" s="46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D250" s="28" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E250" s="28" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F250" s="29"/>
       <c r="G250" s="29"/>
@@ -10963,33 +10967,33 @@
       <c r="J250" s="29"/>
       <c r="K250" s="29"/>
       <c r="L250" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M250" s="32" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N250" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O250" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P250" s="33" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="49.5" outlineLevel="0" r="251">
       <c r="B251" s="27" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C251" s="46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D251" s="28" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E251" s="28" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F251" s="29"/>
       <c r="G251" s="29"/>
@@ -10998,33 +11002,33 @@
       <c r="J251" s="29"/>
       <c r="K251" s="29"/>
       <c r="L251" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M251" s="32" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N251" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O251" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P251" s="33" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="54" outlineLevel="0" r="252">
       <c r="B252" s="27" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C252" s="46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D252" s="28" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E252" s="28" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F252" s="29"/>
       <c r="G252" s="29"/>
@@ -11033,33 +11037,33 @@
       <c r="J252" s="29"/>
       <c r="K252" s="29"/>
       <c r="L252" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M252" s="32" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N252" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O252" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P252" s="33" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="53.25" outlineLevel="0" r="253">
       <c r="B253" s="27" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C253" s="46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D253" s="28" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E253" s="28" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F253" s="29"/>
       <c r="G253" s="29"/>
@@ -11068,33 +11072,33 @@
       <c r="J253" s="29"/>
       <c r="K253" s="29"/>
       <c r="L253" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M253" s="32" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N253" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O253" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P253" s="33" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="54" outlineLevel="0" r="254">
       <c r="B254" s="27" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C254" s="46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D254" s="28" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E254" s="28" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F254" s="29"/>
       <c r="G254" s="29"/>
@@ -11103,19 +11107,19 @@
       <c r="J254" s="29"/>
       <c r="K254" s="29"/>
       <c r="L254" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M254" s="32" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N254" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O254" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P254" s="33" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="255">
@@ -11138,7 +11142,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="256">
       <c r="B256" s="25" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F256" s="29"/>
       <c r="G256" s="29"/>
@@ -11154,335 +11158,335 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="257">
       <c r="B257" s="27" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C257" s="46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D257" s="28" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E257" s="28" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F257" s="29"/>
       <c r="G257" s="29"/>
       <c r="H257" s="23"/>
       <c r="I257" s="32" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="J257" s="29"/>
       <c r="K257" s="29"/>
       <c r="L257" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M257" s="32" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N257" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O257" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P257" s="33" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="258">
       <c r="B258" s="27" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C258" s="46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D258" s="28" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E258" s="28" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F258" s="29"/>
       <c r="G258" s="29"/>
       <c r="H258" s="23"/>
       <c r="I258" s="32" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="J258" s="29"/>
       <c r="K258" s="29"/>
       <c r="L258" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M258" s="32" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N258" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O258" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P258" s="33" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="259">
       <c r="B259" s="27" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C259" s="46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D259" s="28" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E259" s="28" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F259" s="29"/>
       <c r="G259" s="29"/>
       <c r="H259" s="23"/>
       <c r="I259" s="32" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="J259" s="29"/>
       <c r="K259" s="29"/>
       <c r="L259" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M259" s="32" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N259" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O259" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P259" s="33" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="260">
       <c r="B260" s="27" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C260" s="46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D260" s="28" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E260" s="28" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F260" s="29"/>
       <c r="G260" s="29"/>
       <c r="H260" s="23"/>
       <c r="I260" s="32" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="J260" s="29"/>
       <c r="K260" s="29"/>
       <c r="L260" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M260" s="32" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N260" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O260" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P260" s="33" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="261">
       <c r="B261" s="27" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C261" s="46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D261" s="28" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E261" s="28" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F261" s="29"/>
       <c r="G261" s="29"/>
       <c r="H261" s="23"/>
       <c r="I261" s="32" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="J261" s="29"/>
       <c r="K261" s="29"/>
       <c r="L261" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M261" s="32" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N261" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O261" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P261" s="33" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="262">
       <c r="B262" s="27" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C262" s="46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D262" s="28" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E262" s="28" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F262" s="29"/>
       <c r="G262" s="29"/>
       <c r="H262" s="23"/>
       <c r="I262" s="32" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="J262" s="29"/>
       <c r="K262" s="29"/>
       <c r="L262" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M262" s="32" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N262" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O262" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P262" s="33" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="263">
       <c r="B263" s="27" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C263" s="46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D263" s="28" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E263" s="28" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F263" s="29"/>
       <c r="G263" s="29"/>
       <c r="H263" s="23"/>
       <c r="I263" s="49" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J263" s="29"/>
       <c r="K263" s="29"/>
       <c r="L263" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M263" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="N263" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="O263" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="N263" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="O263" s="23" t="s">
-        <v>70</v>
-      </c>
       <c r="P263" s="73" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="264">
       <c r="B264" s="27" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C264" s="46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D264" s="28" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E264" s="28" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F264" s="29"/>
       <c r="G264" s="29"/>
       <c r="H264" s="23"/>
       <c r="I264" s="32" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="J264" s="29"/>
       <c r="K264" s="29"/>
       <c r="L264" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M264" s="32" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N264" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O264" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P264" s="33" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="45.75" outlineLevel="0" r="265">
       <c r="B265" s="27" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C265" s="46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D265" s="28" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E265" s="28" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F265" s="29"/>
       <c r="G265" s="29"/>
       <c r="H265" s="23"/>
       <c r="I265" s="32" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="J265" s="29"/>
       <c r="K265" s="29"/>
       <c r="L265" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M265" s="32" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N265" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O265" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P265" s="33" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="266">
@@ -11505,7 +11509,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="267">
       <c r="B267" s="25" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F267" s="29"/>
       <c r="G267" s="29"/>
@@ -11522,13 +11526,13 @@
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="19.15" outlineLevel="0" r="268" s="59">
       <c r="A268" s="53"/>
       <c r="B268" s="72" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C268" s="46"/>
       <c r="D268" s="87"/>
       <c r="E268" s="87"/>
       <c r="F268" s="54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G268" s="66" t="inlineStr">
         <f aca="true">NOW()</f>
@@ -11540,7 +11544,7 @@
         <v>1</v>
       </c>
       <c r="I268" s="56" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="J268" s="54"/>
       <c r="K268" s="54"/>
@@ -11548,29 +11552,29 @@
         <v>1</v>
       </c>
       <c r="M268" s="56" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N268" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O268" s="67" t="n">
         <v>1</v>
       </c>
       <c r="P268" s="58" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AMJ268" s="0"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="24.95" outlineLevel="0" r="269" s="59">
       <c r="A269" s="53"/>
       <c r="B269" s="72" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C269" s="46"/>
       <c r="D269" s="87"/>
       <c r="E269" s="87"/>
       <c r="F269" s="54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G269" s="66" t="inlineStr">
         <f aca="true">NOW()</f>
@@ -11589,7 +11593,7 @@
       </c>
       <c r="M269" s="56"/>
       <c r="N269" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O269" s="67" t="n">
         <v>1</v>
@@ -11600,13 +11604,13 @@
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="36.2" outlineLevel="0" r="270" s="59">
       <c r="A270" s="53"/>
       <c r="B270" s="72" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C270" s="46"/>
       <c r="D270" s="87"/>
       <c r="E270" s="87"/>
       <c r="F270" s="54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G270" s="66" t="inlineStr">
         <f aca="true">NOW()</f>
@@ -11621,32 +11625,32 @@
       <c r="J270" s="54"/>
       <c r="K270" s="54"/>
       <c r="L270" s="67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M270" s="56" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="N270" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O270" s="67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P270" s="58" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AMJ270" s="0"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="30.75" outlineLevel="0" r="271" s="59">
       <c r="A271" s="53"/>
       <c r="B271" s="72" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C271" s="46"/>
       <c r="D271" s="87"/>
       <c r="E271" s="87"/>
       <c r="F271" s="54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G271" s="66" t="inlineStr">
         <f aca="true">NOW()</f>
@@ -11658,7 +11662,7 @@
         <v>1</v>
       </c>
       <c r="I271" s="56" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="J271" s="54"/>
       <c r="K271" s="54"/>
@@ -11666,16 +11670,16 @@
         <v>1</v>
       </c>
       <c r="M271" s="56" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N271" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O271" s="67" t="n">
         <v>1</v>
       </c>
       <c r="P271" s="58" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AMJ271" s="0"/>
     </row>
@@ -11699,7 +11703,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="273">
       <c r="B273" s="25" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F273" s="29"/>
       <c r="G273" s="29"/>
@@ -11716,15 +11720,15 @@
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="274" s="59">
       <c r="A274" s="63"/>
       <c r="B274" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C274" s="86" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D274" s="87"/>
       <c r="E274" s="87"/>
       <c r="F274" s="54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G274" s="66" t="inlineStr">
         <f aca="true">NOW()</f>
@@ -11736,7 +11740,7 @@
         <v>1</v>
       </c>
       <c r="I274" s="56" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="J274" s="54"/>
       <c r="K274" s="54"/>
@@ -11745,7 +11749,7 @@
       </c>
       <c r="M274" s="56"/>
       <c r="N274" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O274" s="67" t="n">
         <v>1</v>
@@ -11756,15 +11760,15 @@
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="275" s="59">
       <c r="A275" s="63"/>
       <c r="B275" s="84" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C275" s="86" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D275" s="87"/>
       <c r="E275" s="87"/>
       <c r="F275" s="54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G275" s="66" t="inlineStr">
         <f aca="true">NOW()</f>
@@ -11776,7 +11780,7 @@
         <v>1</v>
       </c>
       <c r="I275" s="56" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="J275" s="54"/>
       <c r="K275" s="54"/>
@@ -11785,7 +11789,7 @@
       </c>
       <c r="M275" s="56"/>
       <c r="N275" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O275" s="67" t="n">
         <v>1</v>
@@ -11796,15 +11800,15 @@
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="276" s="59">
       <c r="A276" s="63"/>
       <c r="B276" s="84" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C276" s="86" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D276" s="87"/>
       <c r="E276" s="87"/>
       <c r="F276" s="54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G276" s="66" t="inlineStr">
         <f aca="true">NOW()</f>
@@ -11822,31 +11826,31 @@
         <v>1</v>
       </c>
       <c r="M276" s="56" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="N276" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O276" s="67" t="n">
         <v>1</v>
       </c>
       <c r="P276" s="58" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AMJ276" s="0"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="44.1" outlineLevel="0" r="277" s="59">
       <c r="A277" s="63"/>
       <c r="B277" s="84" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C277" s="86" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D277" s="87"/>
       <c r="E277" s="87"/>
       <c r="F277" s="54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G277" s="66" t="inlineStr">
         <f aca="true">NOW()</f>
@@ -11858,19 +11862,19 @@
         <v>0</v>
       </c>
       <c r="I277" s="56" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="J277" s="54"/>
       <c r="K277" s="54"/>
       <c r="L277" s="67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M277" s="56"/>
       <c r="N277" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O277" s="67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P277" s="58"/>
       <c r="AMJ277" s="0"/>
@@ -11878,10 +11882,10 @@
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="278" s="59">
       <c r="A278" s="63"/>
       <c r="B278" s="84" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C278" s="86" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D278" s="87"/>
       <c r="E278" s="87"/>
@@ -11892,14 +11896,14 @@
       <c r="J278" s="54"/>
       <c r="K278" s="54"/>
       <c r="L278" s="67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M278" s="56"/>
       <c r="N278" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O278" s="67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P278" s="58"/>
       <c r="AMJ278" s="0"/>
@@ -12033,8 +12037,8 @@
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageMargins left="0.346527777777778" right="0.346527777777778" top="0.240277777777778" bottom="0.240277777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="20" fitToWidth="1" horizontalDpi="300" orientation="landscape" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -12049,7 +12053,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="32" zoomScaleNormal="32" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
